--- a/document/数据库/数据/t_student.xlsx
+++ b/document/数据库/数据/t_student.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="711">
   <si>
     <t>student_number</t>
   </si>
@@ -2516,11 +2516,18 @@
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2629,7 +2636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2646,6 +2653,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2928,17 +2942,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="N223" sqref="N223"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.77734375" style="8" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.33203125" customWidth="1"/>
     <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2968,10 +2981,10 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -2983,7 +2996,7 @@
       <c r="M1" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="6" t="s">
         <v>11</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -2999,7 +3012,7 @@
         <v>233</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -3027,10 +3040,10 @@
       <c r="H2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="7">
         <v>42248</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="7">
         <v>42917</v>
       </c>
       <c r="K2" s="1"/>
@@ -3038,7 +3051,7 @@
         <v>6120103556</v>
       </c>
       <c r="M2" s="1"/>
-      <c r="N2" s="1">
+      <c r="N2" s="7">
         <v>35525</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -3078,10 +3091,10 @@
       <c r="H3" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="7">
         <v>42248</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="7">
         <v>42917</v>
       </c>
       <c r="K3" s="1"/>
@@ -3089,7 +3102,7 @@
         <v>6120103589</v>
       </c>
       <c r="M3" s="1"/>
-      <c r="N3" s="1">
+      <c r="N3" s="7">
         <v>35526</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -3129,10 +3142,10 @@
       <c r="H4" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="7">
         <v>42248</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="7">
         <v>42917</v>
       </c>
       <c r="K4" s="1"/>
@@ -3140,7 +3153,7 @@
         <v>6120104144</v>
       </c>
       <c r="M4" s="1"/>
-      <c r="N4" s="1">
+      <c r="N4" s="7">
         <v>35527</v>
       </c>
       <c r="O4" s="1" t="s">
@@ -3180,10 +3193,10 @@
       <c r="H5" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="7">
         <v>42248</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="7">
         <v>42917</v>
       </c>
       <c r="K5" s="1"/>
@@ -3191,7 +3204,7 @@
         <v>6120103571</v>
       </c>
       <c r="M5" s="1"/>
-      <c r="N5" s="1">
+      <c r="N5" s="7">
         <v>35528</v>
       </c>
       <c r="O5" s="1" t="s">
@@ -3231,10 +3244,10 @@
       <c r="H6" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="7">
         <v>42248</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="7">
         <v>42917</v>
       </c>
       <c r="K6" s="1"/>
@@ -3242,7 +3255,7 @@
         <v>6120101809</v>
       </c>
       <c r="M6" s="1"/>
-      <c r="N6" s="1">
+      <c r="N6" s="7">
         <v>35529</v>
       </c>
       <c r="O6" s="1" t="s">
@@ -3282,10 +3295,10 @@
       <c r="H7" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="7">
         <v>42248</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="7">
         <v>42917</v>
       </c>
       <c r="K7" s="1"/>
@@ -3293,7 +3306,7 @@
         <v>6120104144</v>
       </c>
       <c r="M7" s="1"/>
-      <c r="N7" s="1">
+      <c r="N7" s="7">
         <v>35530</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -3333,10 +3346,10 @@
       <c r="H8" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="7">
         <v>42248</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="7">
         <v>42917</v>
       </c>
       <c r="K8" s="1"/>
@@ -3344,7 +3357,7 @@
         <v>6120103556</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="1">
+      <c r="N8" s="7">
         <v>35531</v>
       </c>
       <c r="O8" s="1" t="s">
@@ -3384,10 +3397,10 @@
       <c r="H9" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="7">
         <v>42248</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="7">
         <v>42917</v>
       </c>
       <c r="K9" s="1"/>
@@ -3395,7 +3408,7 @@
         <v>6120101809</v>
       </c>
       <c r="M9" s="1"/>
-      <c r="N9" s="1">
+      <c r="N9" s="7">
         <v>35532</v>
       </c>
       <c r="O9" s="1" t="s">
@@ -3435,10 +3448,10 @@
       <c r="H10" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="7">
         <v>42248</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="7">
         <v>42917</v>
       </c>
       <c r="K10" s="1"/>
@@ -3446,7 +3459,7 @@
         <v>6120101029</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="1">
+      <c r="N10" s="7">
         <v>35533</v>
       </c>
       <c r="O10" s="1" t="s">
@@ -3486,10 +3499,10 @@
       <c r="H11" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="7">
         <v>42248</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="7">
         <v>42917</v>
       </c>
       <c r="K11" s="1"/>
@@ -3497,7 +3510,7 @@
         <v>6120100987</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="1">
+      <c r="N11" s="7">
         <v>35534</v>
       </c>
       <c r="O11" s="1" t="s">
@@ -3537,10 +3550,10 @@
       <c r="H12" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="7">
         <v>42248</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="7">
         <v>42917</v>
       </c>
       <c r="K12" s="1"/>
@@ -3548,7 +3561,7 @@
         <v>6120104144</v>
       </c>
       <c r="M12" s="1"/>
-      <c r="N12" s="1">
+      <c r="N12" s="7">
         <v>35535</v>
       </c>
       <c r="O12" s="1" t="s">
@@ -3588,10 +3601,10 @@
       <c r="H13" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="7">
         <v>42248</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="7">
         <v>42917</v>
       </c>
       <c r="K13" s="1"/>
@@ -3599,7 +3612,7 @@
         <v>6120100987</v>
       </c>
       <c r="M13" s="1"/>
-      <c r="N13" s="1">
+      <c r="N13" s="7">
         <v>35536</v>
       </c>
       <c r="O13" s="1" t="s">
@@ -3639,10 +3652,10 @@
       <c r="H14" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="7">
         <v>42248</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="7">
         <v>42917</v>
       </c>
       <c r="K14" s="1"/>
@@ -3650,7 +3663,7 @@
         <v>6120101029</v>
       </c>
       <c r="M14" s="1"/>
-      <c r="N14" s="1">
+      <c r="N14" s="7">
         <v>35537</v>
       </c>
       <c r="O14" s="1" t="s">
@@ -3690,10 +3703,10 @@
       <c r="H15" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="7">
         <v>42248</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="7">
         <v>42917</v>
       </c>
       <c r="K15" s="1"/>
@@ -3701,7 +3714,7 @@
         <v>6120103557</v>
       </c>
       <c r="M15" s="1"/>
-      <c r="N15" s="1">
+      <c r="N15" s="7">
         <v>35538</v>
       </c>
       <c r="O15" s="1" t="s">
@@ -3741,10 +3754,10 @@
       <c r="H16" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="7">
         <v>42248</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="7">
         <v>42917</v>
       </c>
       <c r="K16" s="1"/>
@@ -3752,7 +3765,7 @@
         <v>6120103557</v>
       </c>
       <c r="M16" s="1"/>
-      <c r="N16" s="1">
+      <c r="N16" s="7">
         <v>35539</v>
       </c>
       <c r="O16" s="1" t="s">
@@ -3792,10 +3805,10 @@
       <c r="H17" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="7">
         <v>42248</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="7">
         <v>42917</v>
       </c>
       <c r="K17" s="1"/>
@@ -3803,7 +3816,7 @@
         <v>6120103571</v>
       </c>
       <c r="M17" s="1"/>
-      <c r="N17" s="1">
+      <c r="N17" s="7">
         <v>35540</v>
       </c>
       <c r="O17" s="1" t="s">
@@ -3843,10 +3856,10 @@
       <c r="H18" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="7">
         <v>42248</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="7">
         <v>42917</v>
       </c>
       <c r="K18" s="1"/>
@@ -3854,7 +3867,7 @@
         <v>6120103557</v>
       </c>
       <c r="M18" s="1"/>
-      <c r="N18" s="1">
+      <c r="N18" s="7">
         <v>35541</v>
       </c>
       <c r="O18" s="1" t="s">
@@ -3894,10 +3907,10 @@
       <c r="H19" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="7">
         <v>42248</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="7">
         <v>42917</v>
       </c>
       <c r="K19" s="1"/>
@@ -3905,7 +3918,7 @@
         <v>6120101809</v>
       </c>
       <c r="M19" s="1"/>
-      <c r="N19" s="1">
+      <c r="N19" s="7">
         <v>35542</v>
       </c>
       <c r="O19" s="1" t="s">
@@ -3945,10 +3958,10 @@
       <c r="H20" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="7">
         <v>42248</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="7">
         <v>42917</v>
       </c>
       <c r="K20" s="1"/>
@@ -3956,7 +3969,7 @@
         <v>6120103571</v>
       </c>
       <c r="M20" s="1"/>
-      <c r="N20" s="1">
+      <c r="N20" s="7">
         <v>35543</v>
       </c>
       <c r="O20" s="1" t="s">
@@ -3996,10 +4009,10 @@
       <c r="H21" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="7">
         <v>42248</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="7">
         <v>42917</v>
       </c>
       <c r="K21" s="1"/>
@@ -4007,7 +4020,7 @@
         <v>6120101029</v>
       </c>
       <c r="M21" s="1"/>
-      <c r="N21" s="1">
+      <c r="N21" s="7">
         <v>35544</v>
       </c>
       <c r="O21" s="1" t="s">
@@ -4047,10 +4060,10 @@
       <c r="H22" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="7">
         <v>42248</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="7">
         <v>42917</v>
       </c>
       <c r="K22" s="1"/>
@@ -4058,7 +4071,7 @@
         <v>6120103556</v>
       </c>
       <c r="M22" s="1"/>
-      <c r="N22" s="1">
+      <c r="N22" s="7">
         <v>35545</v>
       </c>
       <c r="O22" s="1" t="s">
@@ -4098,10 +4111,10 @@
       <c r="H23" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="7">
         <v>42248</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="7">
         <v>42917</v>
       </c>
       <c r="K23" s="1"/>
@@ -4109,7 +4122,7 @@
         <v>6120100987</v>
       </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="1">
+      <c r="N23" s="7">
         <v>35546</v>
       </c>
       <c r="O23" s="1" t="s">
@@ -4149,10 +4162,10 @@
       <c r="H24" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="7">
         <v>42248</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="7">
         <v>42917</v>
       </c>
       <c r="K24" s="1"/>
@@ -4162,7 +4175,7 @@
       <c r="M24" s="1">
         <v>6120101809</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24" s="7">
         <v>35547</v>
       </c>
       <c r="O24" s="1" t="s">
@@ -4202,10 +4215,10 @@
       <c r="H25" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="7">
         <v>42248</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="7">
         <v>42917</v>
       </c>
       <c r="K25" s="1"/>
@@ -4213,7 +4226,7 @@
         <v>6120103589</v>
       </c>
       <c r="M25" s="1"/>
-      <c r="N25" s="1">
+      <c r="N25" s="7">
         <v>35548</v>
       </c>
       <c r="O25" s="1" t="s">
@@ -4253,10 +4266,10 @@
       <c r="H26" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="7">
         <v>42248</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="7">
         <v>42917</v>
       </c>
       <c r="K26" s="1"/>
@@ -4264,7 +4277,7 @@
         <v>6120101809</v>
       </c>
       <c r="M26" s="1"/>
-      <c r="N26" s="1">
+      <c r="N26" s="7">
         <v>35549</v>
       </c>
       <c r="O26" s="1" t="s">
@@ -4304,10 +4317,10 @@
       <c r="H27" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="7">
         <v>41883</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="7">
         <v>42795</v>
       </c>
       <c r="K27" s="1"/>
@@ -4315,7 +4328,7 @@
         <v>6120103556</v>
       </c>
       <c r="M27" s="1"/>
-      <c r="N27" s="1">
+      <c r="N27" s="7">
         <v>35550</v>
       </c>
       <c r="O27" s="1" t="s">
@@ -4355,10 +4368,10 @@
       <c r="H28" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="7">
         <v>41883</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="7">
         <v>42795</v>
       </c>
       <c r="K28" s="1"/>
@@ -4366,7 +4379,7 @@
         <v>6120101029</v>
       </c>
       <c r="M28" s="1"/>
-      <c r="N28" s="1">
+      <c r="N28" s="7">
         <v>35551</v>
       </c>
       <c r="O28" s="1" t="s">
@@ -4406,10 +4419,10 @@
       <c r="H29" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="7">
         <v>41883</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="7">
         <v>42795</v>
       </c>
       <c r="K29" s="1"/>
@@ -4417,7 +4430,7 @@
         <v>6120100987</v>
       </c>
       <c r="M29" s="1"/>
-      <c r="N29" s="1">
+      <c r="N29" s="7">
         <v>35552</v>
       </c>
       <c r="O29" s="1" t="s">
@@ -4457,10 +4470,10 @@
       <c r="H30" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="7">
         <v>41883</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="7">
         <v>42795</v>
       </c>
       <c r="K30" s="1"/>
@@ -4468,7 +4481,7 @@
         <v>6120101029</v>
       </c>
       <c r="M30" s="1"/>
-      <c r="N30" s="1">
+      <c r="N30" s="7">
         <v>35553</v>
       </c>
       <c r="O30" s="1" t="s">
@@ -4508,10 +4521,10 @@
       <c r="H31" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="7">
         <v>41883</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="7">
         <v>42552</v>
       </c>
       <c r="K31" s="1"/>
@@ -4519,7 +4532,7 @@
         <v>6120103556</v>
       </c>
       <c r="M31" s="1"/>
-      <c r="N31" s="1">
+      <c r="N31" s="7">
         <v>35554</v>
       </c>
       <c r="O31" s="1" t="s">
@@ -4559,10 +4572,10 @@
       <c r="H32" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="7">
         <v>41883</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="7">
         <v>42552</v>
       </c>
       <c r="K32" s="1"/>
@@ -4570,7 +4583,7 @@
         <v>6120101809</v>
       </c>
       <c r="M32" s="1"/>
-      <c r="N32" s="1">
+      <c r="N32" s="7">
         <v>35555</v>
       </c>
       <c r="O32" s="1" t="s">
@@ -4610,10 +4623,10 @@
       <c r="H33" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="7">
         <v>41883</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="7">
         <v>42552</v>
       </c>
       <c r="K33" s="1"/>
@@ -4621,7 +4634,7 @@
         <v>6120103571</v>
       </c>
       <c r="M33" s="1"/>
-      <c r="N33" s="1">
+      <c r="N33" s="7">
         <v>35556</v>
       </c>
       <c r="O33" s="1" t="s">
@@ -4661,10 +4674,10 @@
       <c r="H34" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="7">
         <v>41883</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="7">
         <v>42552</v>
       </c>
       <c r="K34" s="1"/>
@@ -4672,7 +4685,7 @@
         <v>6120100987</v>
       </c>
       <c r="M34" s="1"/>
-      <c r="N34" s="1">
+      <c r="N34" s="7">
         <v>35557</v>
       </c>
       <c r="O34" s="1" t="s">
@@ -4712,10 +4725,10 @@
       <c r="H35" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="7">
         <v>41883</v>
       </c>
-      <c r="J35" s="1">
+      <c r="J35" s="7">
         <v>42552</v>
       </c>
       <c r="K35" s="1"/>
@@ -4723,7 +4736,7 @@
         <v>6120110083</v>
       </c>
       <c r="M35" s="1"/>
-      <c r="N35" s="1">
+      <c r="N35" s="7">
         <v>35558</v>
       </c>
       <c r="O35" s="1" t="s">
@@ -4763,10 +4776,10 @@
       <c r="H36" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="7">
         <v>41883</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="7">
         <v>42552</v>
       </c>
       <c r="K36" s="1"/>
@@ -4774,7 +4787,7 @@
         <v>6120103589</v>
       </c>
       <c r="M36" s="1"/>
-      <c r="N36" s="1">
+      <c r="N36" s="7">
         <v>35559</v>
       </c>
       <c r="O36" s="1" t="s">
@@ -4814,10 +4827,10 @@
       <c r="H37" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="7">
         <v>41883</v>
       </c>
-      <c r="J37" s="1">
+      <c r="J37" s="7">
         <v>42552</v>
       </c>
       <c r="K37" s="1"/>
@@ -4825,7 +4838,7 @@
         <v>6120104144</v>
       </c>
       <c r="M37" s="1"/>
-      <c r="N37" s="1">
+      <c r="N37" s="7">
         <v>35560</v>
       </c>
       <c r="O37" s="1" t="s">
@@ -4865,10 +4878,10 @@
       <c r="H38" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="7">
         <v>41883</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="7">
         <v>42552</v>
       </c>
       <c r="K38" s="1"/>
@@ -4876,7 +4889,7 @@
         <v>6120103571</v>
       </c>
       <c r="M38" s="1"/>
-      <c r="N38" s="1">
+      <c r="N38" s="7">
         <v>35561</v>
       </c>
       <c r="O38" s="1" t="s">
@@ -4916,10 +4929,10 @@
       <c r="H39" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="7">
         <v>41883</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39" s="7">
         <v>42552</v>
       </c>
       <c r="K39" s="1"/>
@@ -4927,7 +4940,7 @@
         <v>6120101029</v>
       </c>
       <c r="M39" s="1"/>
-      <c r="N39" s="1">
+      <c r="N39" s="7">
         <v>35562</v>
       </c>
       <c r="O39" s="1" t="s">
@@ -4967,10 +4980,10 @@
       <c r="H40" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="7">
         <v>41883</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40" s="7">
         <v>42552</v>
       </c>
       <c r="K40" s="1"/>
@@ -4978,7 +4991,7 @@
         <v>6120101029</v>
       </c>
       <c r="M40" s="1"/>
-      <c r="N40" s="1">
+      <c r="N40" s="7">
         <v>35563</v>
       </c>
       <c r="O40" s="1" t="s">
@@ -5018,10 +5031,10 @@
       <c r="H41" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="7">
         <v>41883</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="7">
         <v>42552</v>
       </c>
       <c r="K41" s="1"/>
@@ -5029,7 +5042,7 @@
         <v>6120101809</v>
       </c>
       <c r="M41" s="1"/>
-      <c r="N41" s="1">
+      <c r="N41" s="7">
         <v>35564</v>
       </c>
       <c r="O41" s="1" t="s">
@@ -5069,10 +5082,10 @@
       <c r="H42" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="7">
         <v>41883</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42" s="7">
         <v>42552</v>
       </c>
       <c r="K42" s="1"/>
@@ -5080,7 +5093,7 @@
         <v>6120100987</v>
       </c>
       <c r="M42" s="1"/>
-      <c r="N42" s="1">
+      <c r="N42" s="7">
         <v>35565</v>
       </c>
       <c r="O42" s="1" t="s">
@@ -5120,10 +5133,10 @@
       <c r="H43" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="7">
         <v>41883</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43" s="7">
         <v>42552</v>
       </c>
       <c r="K43" s="1"/>
@@ -5131,7 +5144,7 @@
         <v>6120103589</v>
       </c>
       <c r="M43" s="1"/>
-      <c r="N43" s="1">
+      <c r="N43" s="7">
         <v>35566</v>
       </c>
       <c r="O43" s="1" t="s">
@@ -5171,10 +5184,10 @@
       <c r="H44" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="7">
         <v>41883</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44" s="7">
         <v>42552</v>
       </c>
       <c r="K44" s="1"/>
@@ -5182,7 +5195,7 @@
         <v>6120103571</v>
       </c>
       <c r="M44" s="1"/>
-      <c r="N44" s="1">
+      <c r="N44" s="7">
         <v>35567</v>
       </c>
       <c r="O44" s="1" t="s">
@@ -5222,10 +5235,10 @@
       <c r="H45" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="7">
         <v>41883</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="7">
         <v>42552</v>
       </c>
       <c r="K45" s="1"/>
@@ -5233,7 +5246,7 @@
         <v>6120104144</v>
       </c>
       <c r="M45" s="1"/>
-      <c r="N45" s="1">
+      <c r="N45" s="7">
         <v>35568</v>
       </c>
       <c r="O45" s="1" t="s">
@@ -5273,10 +5286,10 @@
       <c r="H46" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="7">
         <v>41883</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46" s="7">
         <v>42552</v>
       </c>
       <c r="K46" s="1"/>
@@ -5284,7 +5297,7 @@
         <v>6120103571</v>
       </c>
       <c r="M46" s="1"/>
-      <c r="N46" s="1">
+      <c r="N46" s="7">
         <v>35569</v>
       </c>
       <c r="O46" s="1" t="s">
@@ -5324,10 +5337,10 @@
       <c r="H47" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="7">
         <v>41883</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47" s="7">
         <v>42552</v>
       </c>
       <c r="K47" s="1"/>
@@ -5335,7 +5348,7 @@
         <v>6120101809</v>
       </c>
       <c r="M47" s="1"/>
-      <c r="N47" s="1">
+      <c r="N47" s="7">
         <v>35570</v>
       </c>
       <c r="O47" s="1" t="s">
@@ -5375,10 +5388,10 @@
       <c r="H48" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="7">
         <v>41883</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48" s="7">
         <v>42552</v>
       </c>
       <c r="K48" s="1"/>
@@ -5386,7 +5399,7 @@
         <v>6120103556</v>
       </c>
       <c r="M48" s="1"/>
-      <c r="N48" s="1">
+      <c r="N48" s="7">
         <v>35571</v>
       </c>
       <c r="O48" s="1" t="s">
@@ -5426,10 +5439,10 @@
       <c r="H49" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="7">
         <v>41883</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49" s="7">
         <v>42552</v>
       </c>
       <c r="K49" s="1"/>
@@ -5437,7 +5450,7 @@
         <v>6120103556</v>
       </c>
       <c r="M49" s="1"/>
-      <c r="N49" s="1">
+      <c r="N49" s="7">
         <v>35572</v>
       </c>
       <c r="O49" s="1" t="s">
@@ -5477,10 +5490,10 @@
       <c r="H50" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="7">
         <v>41883</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50" s="7">
         <v>42552</v>
       </c>
       <c r="K50" s="1"/>
@@ -5488,7 +5501,7 @@
         <v>6120100987</v>
       </c>
       <c r="M50" s="1"/>
-      <c r="N50" s="1">
+      <c r="N50" s="7">
         <v>35573</v>
       </c>
       <c r="O50" s="1" t="s">
@@ -5528,10 +5541,10 @@
       <c r="H51" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="7">
         <v>41883</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J51" s="7">
         <v>42552</v>
       </c>
       <c r="K51" s="1"/>
@@ -5539,7 +5552,7 @@
         <v>6120103589</v>
       </c>
       <c r="M51" s="1"/>
-      <c r="N51" s="1">
+      <c r="N51" s="7">
         <v>35574</v>
       </c>
       <c r="O51" s="1" t="s">
@@ -5579,10 +5592,10 @@
       <c r="H52" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="7">
         <v>41883</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52" s="7">
         <v>42552</v>
       </c>
       <c r="K52" s="1"/>
@@ -5590,7 +5603,7 @@
         <v>6120103556</v>
       </c>
       <c r="M52" s="1"/>
-      <c r="N52" s="1">
+      <c r="N52" s="7">
         <v>35575</v>
       </c>
       <c r="O52" s="1" t="s">
@@ -5630,10 +5643,10 @@
       <c r="H53" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53" s="7">
         <v>41883</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J53" s="7">
         <v>42552</v>
       </c>
       <c r="K53" s="1"/>
@@ -5641,7 +5654,7 @@
         <v>6120110083</v>
       </c>
       <c r="M53" s="1"/>
-      <c r="N53" s="1">
+      <c r="N53" s="7">
         <v>35576</v>
       </c>
       <c r="O53" s="1" t="s">
@@ -5677,10 +5690,10 @@
         <v>1</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="1">
+      <c r="I54" s="7">
         <v>41883</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J54" s="7">
         <v>42552</v>
       </c>
       <c r="K54" s="1"/>
@@ -5688,7 +5701,7 @@
         <v>6120101809</v>
       </c>
       <c r="M54" s="1"/>
-      <c r="N54" s="1">
+      <c r="N54" s="7">
         <v>35577</v>
       </c>
       <c r="O54" s="1" t="s">
@@ -5728,10 +5741,10 @@
       <c r="H55" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55" s="7">
         <v>41518</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J55" s="7">
         <v>42064</v>
       </c>
       <c r="K55" s="1"/>
@@ -5739,7 +5752,7 @@
         <v>6120103556</v>
       </c>
       <c r="M55" s="1"/>
-      <c r="N55" s="1">
+      <c r="N55" s="7">
         <v>35578</v>
       </c>
       <c r="O55" s="1" t="s">
@@ -5779,10 +5792,10 @@
       <c r="H56" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56" s="7">
         <v>41518</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J56" s="7">
         <v>42186</v>
       </c>
       <c r="K56" s="1"/>
@@ -5790,7 +5803,7 @@
         <v>6120104144</v>
       </c>
       <c r="M56" s="1"/>
-      <c r="N56" s="1">
+      <c r="N56" s="7">
         <v>35579</v>
       </c>
       <c r="O56" s="1" t="s">
@@ -5830,10 +5843,10 @@
       <c r="H57" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I57" s="7">
         <v>41518</v>
       </c>
-      <c r="J57" s="1">
+      <c r="J57" s="7">
         <v>42186</v>
       </c>
       <c r="K57" s="1"/>
@@ -5841,7 +5854,7 @@
         <v>6120100987</v>
       </c>
       <c r="M57" s="1"/>
-      <c r="N57" s="1">
+      <c r="N57" s="7">
         <v>35580</v>
       </c>
       <c r="O57" s="1" t="s">
@@ -5881,10 +5894,10 @@
       <c r="H58" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58" s="7">
         <v>41518</v>
       </c>
-      <c r="J58" s="1">
+      <c r="J58" s="7">
         <v>42186</v>
       </c>
       <c r="K58" s="1"/>
@@ -5892,7 +5905,7 @@
         <v>6120104144</v>
       </c>
       <c r="M58" s="1"/>
-      <c r="N58" s="1">
+      <c r="N58" s="7">
         <v>35581</v>
       </c>
       <c r="O58" s="1" t="s">
@@ -5932,10 +5945,10 @@
       <c r="H59" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59" s="7">
         <v>41518</v>
       </c>
-      <c r="J59" s="1">
+      <c r="J59" s="7">
         <v>42186</v>
       </c>
       <c r="K59" s="1"/>
@@ -5943,7 +5956,7 @@
         <v>6120103556</v>
       </c>
       <c r="M59" s="1"/>
-      <c r="N59" s="1">
+      <c r="N59" s="7">
         <v>35582</v>
       </c>
       <c r="O59" s="1" t="s">
@@ -5983,10 +5996,10 @@
       <c r="H60" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60" s="7">
         <v>41518</v>
       </c>
-      <c r="J60" s="1">
+      <c r="J60" s="7">
         <v>42186</v>
       </c>
       <c r="K60" s="1"/>
@@ -5994,7 +6007,7 @@
         <v>6120103556</v>
       </c>
       <c r="M60" s="1"/>
-      <c r="N60" s="1">
+      <c r="N60" s="7">
         <v>35583</v>
       </c>
       <c r="O60" s="1" t="s">
@@ -6034,10 +6047,10 @@
       <c r="H61" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I61" s="7">
         <v>41518</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J61" s="7">
         <v>42186</v>
       </c>
       <c r="K61" s="1"/>
@@ -6045,7 +6058,7 @@
         <v>6120100987</v>
       </c>
       <c r="M61" s="1"/>
-      <c r="N61" s="1">
+      <c r="N61" s="7">
         <v>35584</v>
       </c>
       <c r="O61" s="1" t="s">
@@ -6085,10 +6098,10 @@
       <c r="H62" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62" s="7">
         <v>41518</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J62" s="7">
         <v>42186</v>
       </c>
       <c r="K62" s="1"/>
@@ -6098,7 +6111,7 @@
       <c r="M62" s="1">
         <v>6120101029</v>
       </c>
-      <c r="N62" s="1">
+      <c r="N62" s="7">
         <v>35585</v>
       </c>
       <c r="O62" s="1" t="s">
@@ -6138,10 +6151,10 @@
       <c r="H63" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I63" s="1">
+      <c r="I63" s="7">
         <v>41518</v>
       </c>
-      <c r="J63" s="1">
+      <c r="J63" s="7">
         <v>42186</v>
       </c>
       <c r="K63" s="1"/>
@@ -6149,7 +6162,7 @@
         <v>6120101029</v>
       </c>
       <c r="M63" s="1"/>
-      <c r="N63" s="1">
+      <c r="N63" s="7">
         <v>35586</v>
       </c>
       <c r="O63" s="1" t="s">
@@ -6189,10 +6202,10 @@
       <c r="H64" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I64" s="1">
+      <c r="I64" s="7">
         <v>41518</v>
       </c>
-      <c r="J64" s="1">
+      <c r="J64" s="7">
         <v>42186</v>
       </c>
       <c r="K64" s="1"/>
@@ -6200,7 +6213,7 @@
         <v>6120103571</v>
       </c>
       <c r="M64" s="1"/>
-      <c r="N64" s="1">
+      <c r="N64" s="7">
         <v>35587</v>
       </c>
       <c r="O64" s="1" t="s">
@@ -6240,10 +6253,10 @@
       <c r="H65" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I65" s="7">
         <v>41518</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J65" s="7">
         <v>42186</v>
       </c>
       <c r="K65" s="1"/>
@@ -6251,7 +6264,7 @@
         <v>6120103556</v>
       </c>
       <c r="M65" s="1"/>
-      <c r="N65" s="1">
+      <c r="N65" s="7">
         <v>35588</v>
       </c>
       <c r="O65" s="1" t="s">
@@ -6291,10 +6304,10 @@
       <c r="H66" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I66" s="1">
+      <c r="I66" s="7">
         <v>41518</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J66" s="7">
         <v>42186</v>
       </c>
       <c r="K66" s="1"/>
@@ -6302,7 +6315,7 @@
         <v>6120101029</v>
       </c>
       <c r="M66" s="1"/>
-      <c r="N66" s="1">
+      <c r="N66" s="7">
         <v>35589</v>
       </c>
       <c r="O66" s="1" t="s">
@@ -6342,10 +6355,10 @@
       <c r="H67" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67" s="7">
         <v>41518</v>
       </c>
-      <c r="J67" s="1">
+      <c r="J67" s="7">
         <v>42186</v>
       </c>
       <c r="K67" s="1"/>
@@ -6353,7 +6366,7 @@
         <v>6120101809</v>
       </c>
       <c r="M67" s="1"/>
-      <c r="N67" s="1">
+      <c r="N67" s="7">
         <v>35590</v>
       </c>
       <c r="O67" s="1" t="s">
@@ -6393,10 +6406,10 @@
       <c r="H68" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I68" s="7">
         <v>41518</v>
       </c>
-      <c r="J68" s="1">
+      <c r="J68" s="7">
         <v>42186</v>
       </c>
       <c r="K68" s="1"/>
@@ -6404,7 +6417,7 @@
         <v>6120103571</v>
       </c>
       <c r="M68" s="1"/>
-      <c r="N68" s="1">
+      <c r="N68" s="7">
         <v>35591</v>
       </c>
       <c r="O68" s="1" t="s">
@@ -6444,10 +6457,10 @@
       <c r="H69" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69" s="7">
         <v>41518</v>
       </c>
-      <c r="J69" s="1">
+      <c r="J69" s="7">
         <v>42186</v>
       </c>
       <c r="K69" s="1"/>
@@ -6455,7 +6468,7 @@
         <v>6120104144</v>
       </c>
       <c r="M69" s="1"/>
-      <c r="N69" s="1">
+      <c r="N69" s="7">
         <v>35592</v>
       </c>
       <c r="O69" s="1" t="s">
@@ -6495,10 +6508,10 @@
       <c r="H70" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I70" s="1">
+      <c r="I70" s="7">
         <v>41518</v>
       </c>
-      <c r="J70" s="1">
+      <c r="J70" s="7">
         <v>42186</v>
       </c>
       <c r="K70" s="1"/>
@@ -6508,7 +6521,7 @@
       <c r="M70" s="1">
         <v>6120103556</v>
       </c>
-      <c r="N70" s="1">
+      <c r="N70" s="7">
         <v>35593</v>
       </c>
       <c r="O70" s="1" t="s">
@@ -6548,10 +6561,10 @@
       <c r="H71" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I71" s="7">
         <v>41518</v>
       </c>
-      <c r="J71" s="1">
+      <c r="J71" s="7">
         <v>42186</v>
       </c>
       <c r="K71" s="1"/>
@@ -6559,7 +6572,7 @@
         <v>6120101809</v>
       </c>
       <c r="M71" s="1"/>
-      <c r="N71" s="1">
+      <c r="N71" s="7">
         <v>35594</v>
       </c>
       <c r="O71" s="1" t="s">
@@ -6599,10 +6612,10 @@
       <c r="H72" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I72" s="7">
         <v>41518</v>
       </c>
-      <c r="J72" s="1">
+      <c r="J72" s="7">
         <v>42186</v>
       </c>
       <c r="K72" s="1"/>
@@ -6610,7 +6623,7 @@
         <v>6120100987</v>
       </c>
       <c r="M72" s="1"/>
-      <c r="N72" s="1">
+      <c r="N72" s="7">
         <v>35595</v>
       </c>
       <c r="O72" s="1" t="s">
@@ -6650,10 +6663,10 @@
       <c r="H73" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I73" s="7">
         <v>41518</v>
       </c>
-      <c r="J73" s="1">
+      <c r="J73" s="7">
         <v>42186</v>
       </c>
       <c r="K73" s="1"/>
@@ -6661,7 +6674,7 @@
         <v>6120103571</v>
       </c>
       <c r="M73" s="1"/>
-      <c r="N73" s="1">
+      <c r="N73" s="7">
         <v>35596</v>
       </c>
       <c r="O73" s="1" t="s">
@@ -6701,10 +6714,10 @@
       <c r="H74" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I74" s="7">
         <v>41518</v>
       </c>
-      <c r="J74" s="1">
+      <c r="J74" s="7">
         <v>42186</v>
       </c>
       <c r="K74" s="1"/>
@@ -6712,7 +6725,7 @@
         <v>6120100987</v>
       </c>
       <c r="M74" s="1"/>
-      <c r="N74" s="1">
+      <c r="N74" s="7">
         <v>35597</v>
       </c>
       <c r="O74" s="1" t="s">
@@ -6752,10 +6765,10 @@
       <c r="H75" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I75" s="7">
         <v>41518</v>
       </c>
-      <c r="J75" s="1">
+      <c r="J75" s="7">
         <v>42186</v>
       </c>
       <c r="K75" s="1"/>
@@ -6763,7 +6776,7 @@
         <v>6120101029</v>
       </c>
       <c r="M75" s="1"/>
-      <c r="N75" s="1">
+      <c r="N75" s="7">
         <v>35598</v>
       </c>
       <c r="O75" s="1" t="s">
@@ -6803,10 +6816,10 @@
       <c r="H76" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I76" s="1">
+      <c r="I76" s="7">
         <v>41518</v>
       </c>
-      <c r="J76" s="1">
+      <c r="J76" s="7">
         <v>42186</v>
       </c>
       <c r="K76" s="1"/>
@@ -6814,7 +6827,7 @@
         <v>6120101029</v>
       </c>
       <c r="M76" s="1"/>
-      <c r="N76" s="1">
+      <c r="N76" s="7">
         <v>35599</v>
       </c>
       <c r="O76" s="1" t="s">
@@ -6854,10 +6867,10 @@
       <c r="H77" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I77" s="7">
         <v>41518</v>
       </c>
-      <c r="J77" s="1">
+      <c r="J77" s="7">
         <v>42186</v>
       </c>
       <c r="K77" s="1"/>
@@ -6865,7 +6878,7 @@
         <v>6120103556</v>
       </c>
       <c r="M77" s="1"/>
-      <c r="N77" s="1">
+      <c r="N77" s="7">
         <v>35600</v>
       </c>
       <c r="O77" s="1" t="s">
@@ -6905,10 +6918,10 @@
       <c r="H78" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I78" s="7">
         <v>41518</v>
       </c>
-      <c r="J78" s="1">
+      <c r="J78" s="7">
         <v>42186</v>
       </c>
       <c r="K78" s="1"/>
@@ -6916,7 +6929,7 @@
         <v>6120101809</v>
       </c>
       <c r="M78" s="1"/>
-      <c r="N78" s="1">
+      <c r="N78" s="7">
         <v>35601</v>
       </c>
       <c r="O78" s="1" t="s">
@@ -6956,10 +6969,10 @@
       <c r="H79" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I79" s="1">
+      <c r="I79" s="7">
         <v>41153</v>
       </c>
-      <c r="J79" s="1">
+      <c r="J79" s="7">
         <v>42064</v>
       </c>
       <c r="K79" s="1"/>
@@ -6967,7 +6980,7 @@
         <v>6120103556</v>
       </c>
       <c r="M79" s="1"/>
-      <c r="N79" s="1">
+      <c r="N79" s="7">
         <v>35602</v>
       </c>
       <c r="O79" s="1" t="s">
@@ -7007,10 +7020,10 @@
       <c r="H80" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I80" s="1">
+      <c r="I80" s="7">
         <v>41153</v>
       </c>
-      <c r="J80" s="1">
+      <c r="J80" s="7">
         <v>42064</v>
       </c>
       <c r="K80" s="1"/>
@@ -7018,7 +7031,7 @@
         <v>6120103556</v>
       </c>
       <c r="M80" s="1"/>
-      <c r="N80" s="1">
+      <c r="N80" s="7">
         <v>35603</v>
       </c>
       <c r="O80" s="1" t="s">
@@ -7058,10 +7071,10 @@
       <c r="H81" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I81" s="1">
+      <c r="I81" s="7">
         <v>41153</v>
       </c>
-      <c r="J81" s="1">
+      <c r="J81" s="7">
         <v>42064</v>
       </c>
       <c r="K81" s="1"/>
@@ -7069,7 +7082,7 @@
         <v>6120103556</v>
       </c>
       <c r="M81" s="1"/>
-      <c r="N81" s="1">
+      <c r="N81" s="7">
         <v>35604</v>
       </c>
       <c r="O81" s="1" t="s">
@@ -7109,10 +7122,10 @@
       <c r="H82" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I82" s="1">
+      <c r="I82" s="7">
         <v>41153</v>
       </c>
-      <c r="J82" s="1">
+      <c r="J82" s="7">
         <v>41821</v>
       </c>
       <c r="K82" s="1"/>
@@ -7120,7 +7133,7 @@
         <v>6120101809</v>
       </c>
       <c r="M82" s="1"/>
-      <c r="N82" s="1">
+      <c r="N82" s="7">
         <v>35605</v>
       </c>
       <c r="O82" s="1" t="s">
@@ -7160,10 +7173,10 @@
       <c r="H83" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I83" s="1">
+      <c r="I83" s="7">
         <v>41153</v>
       </c>
-      <c r="J83" s="1">
+      <c r="J83" s="7">
         <v>41821</v>
       </c>
       <c r="K83" s="1"/>
@@ -7171,7 +7184,7 @@
         <v>6120101029</v>
       </c>
       <c r="M83" s="1"/>
-      <c r="N83" s="1">
+      <c r="N83" s="7">
         <v>35606</v>
       </c>
       <c r="O83" s="1" t="s">
@@ -7211,10 +7224,10 @@
       <c r="H84" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I84" s="1">
+      <c r="I84" s="7">
         <v>41153</v>
       </c>
-      <c r="J84" s="1">
+      <c r="J84" s="7">
         <v>41821</v>
       </c>
       <c r="K84" s="1"/>
@@ -7222,7 +7235,7 @@
         <v>6120100987</v>
       </c>
       <c r="M84" s="1"/>
-      <c r="N84" s="1">
+      <c r="N84" s="7">
         <v>35607</v>
       </c>
       <c r="O84" s="1" t="s">
@@ -7262,10 +7275,10 @@
       <c r="H85" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I85" s="1">
+      <c r="I85" s="7">
         <v>41153</v>
       </c>
-      <c r="J85" s="1">
+      <c r="J85" s="7">
         <v>41821</v>
       </c>
       <c r="K85" s="1"/>
@@ -7273,7 +7286,7 @@
         <v>6120101029</v>
       </c>
       <c r="M85" s="1"/>
-      <c r="N85" s="1">
+      <c r="N85" s="7">
         <v>35608</v>
       </c>
       <c r="O85" s="1" t="s">
@@ -7313,10 +7326,10 @@
       <c r="H86" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I86" s="1">
+      <c r="I86" s="7">
         <v>41153</v>
       </c>
-      <c r="J86" s="1">
+      <c r="J86" s="7">
         <v>41821</v>
       </c>
       <c r="K86" s="1"/>
@@ -7324,7 +7337,7 @@
         <v>6120100987</v>
       </c>
       <c r="M86" s="1"/>
-      <c r="N86" s="1">
+      <c r="N86" s="7">
         <v>35609</v>
       </c>
       <c r="O86" s="1" t="s">
@@ -7364,10 +7377,10 @@
       <c r="H87" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I87" s="1">
+      <c r="I87" s="7">
         <v>41153</v>
       </c>
-      <c r="J87" s="1">
+      <c r="J87" s="7">
         <v>41821</v>
       </c>
       <c r="K87" s="1"/>
@@ -7375,7 +7388,7 @@
         <v>6120101809</v>
       </c>
       <c r="M87" s="1"/>
-      <c r="N87" s="1">
+      <c r="N87" s="7">
         <v>35610</v>
       </c>
       <c r="O87" s="1" t="s">
@@ -7415,10 +7428,10 @@
       <c r="H88" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I88" s="1">
+      <c r="I88" s="7">
         <v>41153</v>
       </c>
-      <c r="J88" s="1">
+      <c r="J88" s="7">
         <v>41821</v>
       </c>
       <c r="K88" s="1"/>
@@ -7426,7 +7439,7 @@
         <v>6120101809</v>
       </c>
       <c r="M88" s="1"/>
-      <c r="N88" s="1">
+      <c r="N88" s="7">
         <v>35611</v>
       </c>
       <c r="O88" s="1" t="s">
@@ -7466,10 +7479,10 @@
       <c r="H89" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I89" s="1">
+      <c r="I89" s="7">
         <v>41153</v>
       </c>
-      <c r="J89" s="1">
+      <c r="J89" s="7">
         <v>41821</v>
       </c>
       <c r="K89" s="1"/>
@@ -7477,7 +7490,7 @@
         <v>6120100987</v>
       </c>
       <c r="M89" s="1"/>
-      <c r="N89" s="1">
+      <c r="N89" s="7">
         <v>35612</v>
       </c>
       <c r="O89" s="1" t="s">
@@ -7517,10 +7530,10 @@
       <c r="H90" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I90" s="1">
+      <c r="I90" s="7">
         <v>41153</v>
       </c>
-      <c r="J90" s="1">
+      <c r="J90" s="7">
         <v>41821</v>
       </c>
       <c r="K90" s="1"/>
@@ -7528,7 +7541,7 @@
         <v>6120104144</v>
       </c>
       <c r="M90" s="1"/>
-      <c r="N90" s="1">
+      <c r="N90" s="7">
         <v>35613</v>
       </c>
       <c r="O90" s="1" t="s">
@@ -7568,10 +7581,10 @@
       <c r="H91" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I91" s="1">
+      <c r="I91" s="7">
         <v>41153</v>
       </c>
-      <c r="J91" s="1">
+      <c r="J91" s="7">
         <v>41821</v>
       </c>
       <c r="K91" s="1"/>
@@ -7579,7 +7592,7 @@
         <v>6120103556</v>
       </c>
       <c r="M91" s="1"/>
-      <c r="N91" s="1">
+      <c r="N91" s="7">
         <v>35614</v>
       </c>
       <c r="O91" s="1" t="s">
@@ -7619,10 +7632,10 @@
       <c r="H92" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I92" s="1">
+      <c r="I92" s="7">
         <v>41153</v>
       </c>
-      <c r="J92" s="1">
+      <c r="J92" s="7">
         <v>41821</v>
       </c>
       <c r="K92" s="1"/>
@@ -7630,7 +7643,7 @@
         <v>6120103571</v>
       </c>
       <c r="M92" s="1"/>
-      <c r="N92" s="1">
+      <c r="N92" s="7">
         <v>35615</v>
       </c>
       <c r="O92" s="1" t="s">
@@ -7670,10 +7683,10 @@
       <c r="H93" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I93" s="1">
+      <c r="I93" s="7">
         <v>41153</v>
       </c>
-      <c r="J93" s="1">
+      <c r="J93" s="7">
         <v>41821</v>
       </c>
       <c r="K93" s="1"/>
@@ -7681,7 +7694,7 @@
         <v>6120103556</v>
       </c>
       <c r="M93" s="1"/>
-      <c r="N93" s="1">
+      <c r="N93" s="7">
         <v>35616</v>
       </c>
       <c r="O93" s="1" t="s">
@@ -7721,10 +7734,10 @@
       <c r="H94" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I94" s="1">
+      <c r="I94" s="7">
         <v>41153</v>
       </c>
-      <c r="J94" s="1">
+      <c r="J94" s="7">
         <v>41821</v>
       </c>
       <c r="K94" s="1"/>
@@ -7732,7 +7745,7 @@
         <v>6120103571</v>
       </c>
       <c r="M94" s="1"/>
-      <c r="N94" s="1">
+      <c r="N94" s="7">
         <v>35617</v>
       </c>
       <c r="O94" s="1" t="s">
@@ -7772,10 +7785,10 @@
       <c r="H95" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I95" s="1">
+      <c r="I95" s="7">
         <v>41153</v>
       </c>
-      <c r="J95" s="1">
+      <c r="J95" s="7">
         <v>41821</v>
       </c>
       <c r="K95" s="1"/>
@@ -7783,7 +7796,7 @@
         <v>6120104144</v>
       </c>
       <c r="M95" s="1"/>
-      <c r="N95" s="1">
+      <c r="N95" s="7">
         <v>35618</v>
       </c>
       <c r="O95" s="1" t="s">
@@ -7823,10 +7836,10 @@
       <c r="H96" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I96" s="1">
+      <c r="I96" s="7">
         <v>41153</v>
       </c>
-      <c r="J96" s="1">
+      <c r="J96" s="7">
         <v>41821</v>
       </c>
       <c r="K96" s="1"/>
@@ -7834,7 +7847,7 @@
         <v>6120101029</v>
       </c>
       <c r="M96" s="1"/>
-      <c r="N96" s="1">
+      <c r="N96" s="7">
         <v>35619</v>
       </c>
       <c r="O96" s="1" t="s">
@@ -7874,10 +7887,10 @@
       <c r="H97" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I97" s="1">
+      <c r="I97" s="7">
         <v>41153</v>
       </c>
-      <c r="J97" s="1">
+      <c r="J97" s="7">
         <v>41821</v>
       </c>
       <c r="K97" s="1"/>
@@ -7885,7 +7898,7 @@
         <v>6120103556</v>
       </c>
       <c r="M97" s="1"/>
-      <c r="N97" s="1">
+      <c r="N97" s="7">
         <v>35620</v>
       </c>
       <c r="O97" s="1" t="s">
@@ -7925,10 +7938,10 @@
       <c r="H98" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I98" s="1">
+      <c r="I98" s="7">
         <v>40787</v>
       </c>
-      <c r="J98" s="1">
+      <c r="J98" s="7">
         <v>41821</v>
       </c>
       <c r="K98" s="1"/>
@@ -7936,7 +7949,7 @@
         <v>6120103571</v>
       </c>
       <c r="M98" s="1"/>
-      <c r="N98" s="1">
+      <c r="N98" s="7">
         <v>35621</v>
       </c>
       <c r="O98" s="1" t="s">
@@ -7976,10 +7989,10 @@
       <c r="H99" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I99" s="1">
+      <c r="I99" s="7">
         <v>40787</v>
       </c>
-      <c r="J99" s="1">
+      <c r="J99" s="7">
         <v>41456</v>
       </c>
       <c r="K99" s="1"/>
@@ -7987,7 +8000,7 @@
         <v>6120101029</v>
       </c>
       <c r="M99" s="1"/>
-      <c r="N99" s="1">
+      <c r="N99" s="7">
         <v>35622</v>
       </c>
       <c r="O99" s="1" t="s">
@@ -8027,10 +8040,10 @@
       <c r="H100" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I100" s="1">
+      <c r="I100" s="7">
         <v>40787</v>
       </c>
-      <c r="J100" s="1">
+      <c r="J100" s="7">
         <v>41456</v>
       </c>
       <c r="K100" s="1"/>
@@ -8038,7 +8051,7 @@
         <v>6120103556</v>
       </c>
       <c r="M100" s="1"/>
-      <c r="N100" s="1">
+      <c r="N100" s="7">
         <v>35623</v>
       </c>
       <c r="O100" s="1" t="s">
@@ -8078,10 +8091,10 @@
       <c r="H101" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I101" s="1">
+      <c r="I101" s="7">
         <v>40787</v>
       </c>
-      <c r="J101" s="1">
+      <c r="J101" s="7">
         <v>41456</v>
       </c>
       <c r="K101" s="1"/>
@@ -8089,7 +8102,7 @@
         <v>6120103556</v>
       </c>
       <c r="M101" s="1"/>
-      <c r="N101" s="1">
+      <c r="N101" s="7">
         <v>35624</v>
       </c>
       <c r="O101" s="1" t="s">
@@ -8129,10 +8142,10 @@
       <c r="H102" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I102" s="1">
+      <c r="I102" s="7">
         <v>40787</v>
       </c>
-      <c r="J102" s="1">
+      <c r="J102" s="7">
         <v>41456</v>
       </c>
       <c r="K102" s="1"/>
@@ -8140,7 +8153,7 @@
         <v>6120104144</v>
       </c>
       <c r="M102" s="1"/>
-      <c r="N102" s="1">
+      <c r="N102" s="7">
         <v>35625</v>
       </c>
       <c r="O102" s="1" t="s">
@@ -8180,10 +8193,10 @@
       <c r="H103" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I103" s="1">
+      <c r="I103" s="7">
         <v>40787</v>
       </c>
-      <c r="J103" s="1">
+      <c r="J103" s="7">
         <v>41456</v>
       </c>
       <c r="K103" s="1"/>
@@ -8191,7 +8204,7 @@
         <v>6120100987</v>
       </c>
       <c r="M103" s="1"/>
-      <c r="N103" s="1">
+      <c r="N103" s="7">
         <v>35626</v>
       </c>
       <c r="O103" s="1" t="s">
@@ -8231,10 +8244,10 @@
       <c r="H104" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I104" s="1">
+      <c r="I104" s="7">
         <v>40787</v>
       </c>
-      <c r="J104" s="1">
+      <c r="J104" s="7">
         <v>41456</v>
       </c>
       <c r="K104" s="1"/>
@@ -8242,7 +8255,7 @@
         <v>6120101029</v>
       </c>
       <c r="M104" s="1"/>
-      <c r="N104" s="1">
+      <c r="N104" s="7">
         <v>35627</v>
       </c>
       <c r="O104" s="1" t="s">
@@ -8282,10 +8295,10 @@
       <c r="H105" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I105" s="1">
+      <c r="I105" s="7">
         <v>40787</v>
       </c>
-      <c r="J105" s="1">
+      <c r="J105" s="7">
         <v>41456</v>
       </c>
       <c r="K105" s="1"/>
@@ -8293,7 +8306,7 @@
         <v>6120100987</v>
       </c>
       <c r="M105" s="1"/>
-      <c r="N105" s="1">
+      <c r="N105" s="7">
         <v>35628</v>
       </c>
       <c r="O105" s="1" t="s">
@@ -8333,10 +8346,10 @@
       <c r="H106" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I106" s="1">
+      <c r="I106" s="7">
         <v>40787</v>
       </c>
-      <c r="J106" s="1">
+      <c r="J106" s="7">
         <v>41456</v>
       </c>
       <c r="K106" s="1"/>
@@ -8344,7 +8357,7 @@
         <v>6120101029</v>
       </c>
       <c r="M106" s="1"/>
-      <c r="N106" s="1">
+      <c r="N106" s="7">
         <v>35629</v>
       </c>
       <c r="O106" s="1" t="s">
@@ -8384,10 +8397,10 @@
       <c r="H107" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I107" s="1">
+      <c r="I107" s="7">
         <v>40787</v>
       </c>
-      <c r="J107" s="1">
+      <c r="J107" s="7">
         <v>41456</v>
       </c>
       <c r="K107" s="1"/>
@@ -8395,7 +8408,7 @@
         <v>6120101809</v>
       </c>
       <c r="M107" s="1"/>
-      <c r="N107" s="1">
+      <c r="N107" s="7">
         <v>35630</v>
       </c>
       <c r="O107" s="1" t="s">
@@ -8435,10 +8448,10 @@
       <c r="H108" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I108" s="1">
+      <c r="I108" s="7">
         <v>40787</v>
       </c>
-      <c r="J108" s="1">
+      <c r="J108" s="7">
         <v>41456</v>
       </c>
       <c r="K108" s="1"/>
@@ -8446,7 +8459,7 @@
         <v>6120103571</v>
       </c>
       <c r="M108" s="1"/>
-      <c r="N108" s="1">
+      <c r="N108" s="7">
         <v>35631</v>
       </c>
       <c r="O108" s="1" t="s">
@@ -8486,10 +8499,10 @@
       <c r="H109" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I109" s="1">
+      <c r="I109" s="7">
         <v>40787</v>
       </c>
-      <c r="J109" s="1">
+      <c r="J109" s="7">
         <v>41456</v>
       </c>
       <c r="K109" s="1"/>
@@ -8497,7 +8510,7 @@
         <v>6120103556</v>
       </c>
       <c r="M109" s="1"/>
-      <c r="N109" s="1">
+      <c r="N109" s="7">
         <v>35632</v>
       </c>
       <c r="O109" s="1" t="s">
@@ -8537,10 +8550,10 @@
       <c r="H110" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I110" s="1">
+      <c r="I110" s="7">
         <v>40787</v>
       </c>
-      <c r="J110" s="1">
+      <c r="J110" s="7">
         <v>41456</v>
       </c>
       <c r="K110" s="1"/>
@@ -8548,7 +8561,7 @@
         <v>6120101809</v>
       </c>
       <c r="M110" s="1"/>
-      <c r="N110" s="1">
+      <c r="N110" s="7">
         <v>35633</v>
       </c>
       <c r="O110" s="1" t="s">
@@ -8588,10 +8601,10 @@
       <c r="H111" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I111" s="1">
+      <c r="I111" s="7">
         <v>40787</v>
       </c>
-      <c r="J111" s="1">
+      <c r="J111" s="7">
         <v>41456</v>
       </c>
       <c r="K111" s="1"/>
@@ -8599,7 +8612,7 @@
         <v>6120104144</v>
       </c>
       <c r="M111" s="1"/>
-      <c r="N111" s="1">
+      <c r="N111" s="7">
         <v>35634</v>
       </c>
       <c r="O111" s="1" t="s">
@@ -8639,10 +8652,10 @@
       <c r="H112" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I112" s="1">
+      <c r="I112" s="7">
         <v>40787</v>
       </c>
-      <c r="J112" s="1">
+      <c r="J112" s="7">
         <v>41456</v>
       </c>
       <c r="K112" s="1"/>
@@ -8650,7 +8663,7 @@
         <v>6120103556</v>
       </c>
       <c r="M112" s="1"/>
-      <c r="N112" s="1">
+      <c r="N112" s="7">
         <v>35635</v>
       </c>
       <c r="O112" s="1" t="s">
@@ -8690,10 +8703,10 @@
       <c r="H113" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I113" s="1">
+      <c r="I113" s="7">
         <v>40422</v>
       </c>
-      <c r="J113" s="1">
+      <c r="J113" s="7">
         <v>41456</v>
       </c>
       <c r="K113" s="1"/>
@@ -8701,7 +8714,7 @@
         <v>6120104144</v>
       </c>
       <c r="M113" s="1"/>
-      <c r="N113" s="1">
+      <c r="N113" s="7">
         <v>35636</v>
       </c>
       <c r="O113" s="1" t="s">
@@ -8741,10 +8754,10 @@
       <c r="H114" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I114" s="1">
+      <c r="I114" s="7">
         <v>40422</v>
       </c>
-      <c r="J114" s="1">
+      <c r="J114" s="7">
         <v>41091</v>
       </c>
       <c r="K114" s="1"/>
@@ -8752,7 +8765,7 @@
         <v>6120103571</v>
       </c>
       <c r="M114" s="1"/>
-      <c r="N114" s="1">
+      <c r="N114" s="7">
         <v>35637</v>
       </c>
       <c r="O114" s="1" t="s">
@@ -8792,10 +8805,10 @@
       <c r="H115" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I115" s="1">
+      <c r="I115" s="7">
         <v>40422</v>
       </c>
-      <c r="J115" s="1">
+      <c r="J115" s="7">
         <v>41091</v>
       </c>
       <c r="K115" s="1"/>
@@ -8803,7 +8816,7 @@
         <v>6120104144</v>
       </c>
       <c r="M115" s="1"/>
-      <c r="N115" s="1">
+      <c r="N115" s="7">
         <v>35638</v>
       </c>
       <c r="O115" s="1" t="s">
@@ -8843,10 +8856,10 @@
       <c r="H116" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I116" s="1">
+      <c r="I116" s="7">
         <v>40422</v>
       </c>
-      <c r="J116" s="1">
+      <c r="J116" s="7">
         <v>41091</v>
       </c>
       <c r="K116" s="1"/>
@@ -8854,7 +8867,7 @@
         <v>6120103556</v>
       </c>
       <c r="M116" s="1"/>
-      <c r="N116" s="1">
+      <c r="N116" s="7">
         <v>35639</v>
       </c>
       <c r="O116" s="1" t="s">
@@ -8894,10 +8907,10 @@
       <c r="H117" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I117" s="1">
+      <c r="I117" s="7">
         <v>40422</v>
       </c>
-      <c r="J117" s="1">
+      <c r="J117" s="7">
         <v>41091</v>
       </c>
       <c r="K117" s="1"/>
@@ -8905,7 +8918,7 @@
         <v>6120100987</v>
       </c>
       <c r="M117" s="1"/>
-      <c r="N117" s="1">
+      <c r="N117" s="7">
         <v>35640</v>
       </c>
       <c r="O117" s="1" t="s">
@@ -8945,10 +8958,10 @@
       <c r="H118" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I118" s="1">
+      <c r="I118" s="7">
         <v>40422</v>
       </c>
-      <c r="J118" s="1">
+      <c r="J118" s="7">
         <v>41091</v>
       </c>
       <c r="K118" s="1"/>
@@ -8956,7 +8969,7 @@
         <v>6120101029</v>
       </c>
       <c r="M118" s="1"/>
-      <c r="N118" s="1">
+      <c r="N118" s="7">
         <v>35641</v>
       </c>
       <c r="O118" s="1" t="s">
@@ -8996,10 +9009,10 @@
       <c r="H119" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I119" s="1">
+      <c r="I119" s="7">
         <v>40422</v>
       </c>
-      <c r="J119" s="1">
+      <c r="J119" s="7">
         <v>41091</v>
       </c>
       <c r="K119" s="1"/>
@@ -9007,7 +9020,7 @@
         <v>6120103571</v>
       </c>
       <c r="M119" s="1"/>
-      <c r="N119" s="1">
+      <c r="N119" s="7">
         <v>35642</v>
       </c>
       <c r="O119" s="1" t="s">
@@ -9047,10 +9060,10 @@
       <c r="H120" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I120" s="1">
+      <c r="I120" s="7">
         <v>40422</v>
       </c>
-      <c r="J120" s="1">
+      <c r="J120" s="7">
         <v>41091</v>
       </c>
       <c r="K120" s="1"/>
@@ -9058,7 +9071,7 @@
         <v>6120103556</v>
       </c>
       <c r="M120" s="1"/>
-      <c r="N120" s="1">
+      <c r="N120" s="7">
         <v>35643</v>
       </c>
       <c r="O120" s="1" t="s">
@@ -9098,10 +9111,10 @@
       <c r="H121" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I121" s="1">
+      <c r="I121" s="7">
         <v>40422</v>
       </c>
-      <c r="J121" s="1">
+      <c r="J121" s="7">
         <v>41091</v>
       </c>
       <c r="K121" s="1"/>
@@ -9109,7 +9122,7 @@
         <v>6120101029</v>
       </c>
       <c r="M121" s="1"/>
-      <c r="N121" s="1">
+      <c r="N121" s="7">
         <v>35644</v>
       </c>
       <c r="O121" s="1" t="s">
@@ -9149,10 +9162,10 @@
       <c r="H122" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I122" s="1">
+      <c r="I122" s="7">
         <v>40422</v>
       </c>
-      <c r="J122" s="1">
+      <c r="J122" s="7">
         <v>41091</v>
       </c>
       <c r="K122" s="1"/>
@@ -9160,7 +9173,7 @@
         <v>6120101029</v>
       </c>
       <c r="M122" s="1"/>
-      <c r="N122" s="1">
+      <c r="N122" s="7">
         <v>35645</v>
       </c>
       <c r="O122" s="1" t="s">
@@ -9200,10 +9213,10 @@
       <c r="H123" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I123" s="1">
+      <c r="I123" s="7">
         <v>40422</v>
       </c>
-      <c r="J123" s="1">
+      <c r="J123" s="7">
         <v>41091</v>
       </c>
       <c r="K123" s="1"/>
@@ -9211,7 +9224,7 @@
         <v>6120104144</v>
       </c>
       <c r="M123" s="1"/>
-      <c r="N123" s="1">
+      <c r="N123" s="7">
         <v>35646</v>
       </c>
       <c r="O123" s="1" t="s">
@@ -9251,10 +9264,10 @@
       <c r="H124" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I124" s="1">
+      <c r="I124" s="7">
         <v>40422</v>
       </c>
-      <c r="J124" s="1">
+      <c r="J124" s="7">
         <v>41091</v>
       </c>
       <c r="K124" s="1"/>
@@ -9262,7 +9275,7 @@
         <v>6120101029</v>
       </c>
       <c r="M124" s="1"/>
-      <c r="N124" s="1">
+      <c r="N124" s="7">
         <v>35647</v>
       </c>
       <c r="O124" s="1" t="s">
@@ -9302,10 +9315,10 @@
       <c r="H125" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I125" s="1">
+      <c r="I125" s="7">
         <v>40422</v>
       </c>
-      <c r="J125" s="1">
+      <c r="J125" s="7">
         <v>41091</v>
       </c>
       <c r="K125" s="1"/>
@@ -9313,7 +9326,7 @@
         <v>6120100987</v>
       </c>
       <c r="M125" s="1"/>
-      <c r="N125" s="1">
+      <c r="N125" s="7">
         <v>35648</v>
       </c>
       <c r="O125" s="1" t="s">
@@ -9353,10 +9366,10 @@
       <c r="H126" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I126" s="1">
+      <c r="I126" s="7">
         <v>40422</v>
       </c>
-      <c r="J126" s="1">
+      <c r="J126" s="7">
         <v>41091</v>
       </c>
       <c r="K126" s="1"/>
@@ -9364,7 +9377,7 @@
         <v>6120104144</v>
       </c>
       <c r="M126" s="1"/>
-      <c r="N126" s="1">
+      <c r="N126" s="7">
         <v>35649</v>
       </c>
       <c r="O126" s="1" t="s">
@@ -9404,10 +9417,10 @@
       <c r="H127" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I127" s="1">
+      <c r="I127" s="7">
         <v>40422</v>
       </c>
-      <c r="J127" s="1">
+      <c r="J127" s="7">
         <v>41091</v>
       </c>
       <c r="K127" s="1"/>
@@ -9415,7 +9428,7 @@
         <v>6120103556</v>
       </c>
       <c r="M127" s="1"/>
-      <c r="N127" s="1">
+      <c r="N127" s="7">
         <v>35650</v>
       </c>
       <c r="O127" s="1" t="s">
@@ -9455,10 +9468,10 @@
       <c r="H128" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I128" s="1">
+      <c r="I128" s="7">
         <v>40422</v>
       </c>
-      <c r="J128" s="1">
+      <c r="J128" s="7">
         <v>41091</v>
       </c>
       <c r="K128" s="1"/>
@@ -9466,7 +9479,7 @@
         <v>6120103571</v>
       </c>
       <c r="M128" s="1"/>
-      <c r="N128" s="1">
+      <c r="N128" s="7">
         <v>35651</v>
       </c>
       <c r="O128" s="1" t="s">
@@ -9506,10 +9519,10 @@
       <c r="H129" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I129" s="1">
+      <c r="I129" s="7">
         <v>40422</v>
       </c>
-      <c r="J129" s="1">
+      <c r="J129" s="7">
         <v>41091</v>
       </c>
       <c r="K129" s="1"/>
@@ -9517,7 +9530,7 @@
         <v>6120100987</v>
       </c>
       <c r="M129" s="1"/>
-      <c r="N129" s="1">
+      <c r="N129" s="7">
         <v>35652</v>
       </c>
       <c r="O129" s="1" t="s">
@@ -9557,10 +9570,10 @@
       <c r="H130" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I130" s="1">
+      <c r="I130" s="7">
         <v>40422</v>
       </c>
-      <c r="J130" s="1">
+      <c r="J130" s="7">
         <v>41091</v>
       </c>
       <c r="K130" s="1"/>
@@ -9568,7 +9581,7 @@
         <v>6120101029</v>
       </c>
       <c r="M130" s="1"/>
-      <c r="N130" s="1">
+      <c r="N130" s="7">
         <v>35653</v>
       </c>
       <c r="O130" s="1" t="s">
@@ -9608,10 +9621,10 @@
       <c r="H131" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I131" s="1">
+      <c r="I131" s="7">
         <v>40422</v>
       </c>
-      <c r="J131" s="1">
+      <c r="J131" s="7">
         <v>41091</v>
       </c>
       <c r="K131" s="1"/>
@@ -9619,7 +9632,7 @@
         <v>6120101029</v>
       </c>
       <c r="M131" s="1"/>
-      <c r="N131" s="1">
+      <c r="N131" s="7">
         <v>35654</v>
       </c>
       <c r="O131" s="1" t="s">
@@ -9659,10 +9672,10 @@
       <c r="H132" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I132" s="1">
+      <c r="I132" s="7">
         <v>40422</v>
       </c>
-      <c r="J132" s="1">
+      <c r="J132" s="7">
         <v>41091</v>
       </c>
       <c r="K132" s="1"/>
@@ -9670,7 +9683,7 @@
         <v>6120103556</v>
       </c>
       <c r="M132" s="1"/>
-      <c r="N132" s="1">
+      <c r="N132" s="7">
         <v>35655</v>
       </c>
       <c r="O132" s="1" t="s">
@@ -9710,10 +9723,10 @@
       <c r="H133" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I133" s="1">
+      <c r="I133" s="7">
         <v>40422</v>
       </c>
-      <c r="J133" s="1">
+      <c r="J133" s="7">
         <v>41091</v>
       </c>
       <c r="K133" s="1"/>
@@ -9721,7 +9734,7 @@
         <v>6120103556</v>
       </c>
       <c r="M133" s="1"/>
-      <c r="N133" s="1">
+      <c r="N133" s="7">
         <v>35656</v>
       </c>
       <c r="O133" s="1" t="s">
@@ -9761,10 +9774,10 @@
       <c r="H134" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I134" s="1">
+      <c r="I134" s="7">
         <v>40422</v>
       </c>
-      <c r="J134" s="1">
+      <c r="J134" s="7">
         <v>41091</v>
       </c>
       <c r="K134" s="1"/>
@@ -9772,7 +9785,7 @@
         <v>6120100987</v>
       </c>
       <c r="M134" s="1"/>
-      <c r="N134" s="1">
+      <c r="N134" s="7">
         <v>35657</v>
       </c>
       <c r="O134" s="1" t="s">
@@ -9812,10 +9825,10 @@
       <c r="H135" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I135" s="1">
+      <c r="I135" s="7">
         <v>40422</v>
       </c>
-      <c r="J135" s="1">
+      <c r="J135" s="7">
         <v>41091</v>
       </c>
       <c r="K135" s="1"/>
@@ -9823,7 +9836,7 @@
         <v>6120101029</v>
       </c>
       <c r="M135" s="1"/>
-      <c r="N135" s="1">
+      <c r="N135" s="7">
         <v>35658</v>
       </c>
       <c r="O135" s="1" t="s">
@@ -9863,10 +9876,10 @@
       <c r="H136" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I136" s="1">
+      <c r="I136" s="7">
         <v>40422</v>
       </c>
-      <c r="J136" s="1">
+      <c r="J136" s="7">
         <v>41091</v>
       </c>
       <c r="K136" s="1"/>
@@ -9874,7 +9887,7 @@
         <v>6120103556</v>
       </c>
       <c r="M136" s="1"/>
-      <c r="N136" s="1">
+      <c r="N136" s="7">
         <v>35659</v>
       </c>
       <c r="O136" s="1" t="s">
@@ -9914,10 +9927,10 @@
       <c r="H137" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I137" s="1">
+      <c r="I137" s="7">
         <v>40422</v>
       </c>
-      <c r="J137" s="1">
+      <c r="J137" s="7">
         <v>41091</v>
       </c>
       <c r="K137" s="1"/>
@@ -9925,7 +9938,7 @@
         <v>6120103571</v>
       </c>
       <c r="M137" s="1"/>
-      <c r="N137" s="1">
+      <c r="N137" s="7">
         <v>35660</v>
       </c>
       <c r="O137" s="1" t="s">
@@ -9965,10 +9978,10 @@
       <c r="H138" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I138" s="1">
+      <c r="I138" s="7">
         <v>40422</v>
       </c>
-      <c r="J138" s="1">
+      <c r="J138" s="7">
         <v>41091</v>
       </c>
       <c r="K138" s="1"/>
@@ -9976,7 +9989,7 @@
         <v>6120100987</v>
       </c>
       <c r="M138" s="1"/>
-      <c r="N138" s="1">
+      <c r="N138" s="7">
         <v>35661</v>
       </c>
       <c r="O138" s="1" t="s">
@@ -10016,10 +10029,10 @@
       <c r="H139" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I139" s="1">
+      <c r="I139" s="7">
         <v>40057</v>
       </c>
-      <c r="J139" s="1">
+      <c r="J139" s="7">
         <v>40969</v>
       </c>
       <c r="K139" s="1"/>
@@ -10027,7 +10040,7 @@
         <v>6120103556</v>
       </c>
       <c r="M139" s="1"/>
-      <c r="N139" s="1">
+      <c r="N139" s="7">
         <v>35662</v>
       </c>
       <c r="O139" s="1" t="s">
@@ -10067,10 +10080,10 @@
       <c r="H140" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I140" s="1">
+      <c r="I140" s="7">
         <v>40057</v>
       </c>
-      <c r="J140" s="1">
+      <c r="J140" s="7">
         <v>40969</v>
       </c>
       <c r="K140" s="1"/>
@@ -10078,7 +10091,7 @@
         <v>6120100987</v>
       </c>
       <c r="M140" s="1"/>
-      <c r="N140" s="1">
+      <c r="N140" s="7">
         <v>35663</v>
       </c>
       <c r="O140" s="1" t="s">
@@ -10118,10 +10131,10 @@
       <c r="H141" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I141" s="1">
+      <c r="I141" s="7">
         <v>40057</v>
       </c>
-      <c r="J141" s="1">
+      <c r="J141" s="7">
         <v>40725</v>
       </c>
       <c r="K141" s="1"/>
@@ -10129,7 +10142,7 @@
         <v>6120101029</v>
       </c>
       <c r="M141" s="1"/>
-      <c r="N141" s="1">
+      <c r="N141" s="7">
         <v>35664</v>
       </c>
       <c r="O141" s="1" t="s">
@@ -10169,10 +10182,10 @@
       <c r="H142" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I142" s="1">
+      <c r="I142" s="7">
         <v>40057</v>
       </c>
-      <c r="J142" s="1">
+      <c r="J142" s="7">
         <v>40725</v>
       </c>
       <c r="K142" s="1"/>
@@ -10180,7 +10193,7 @@
         <v>6120103571</v>
       </c>
       <c r="M142" s="1"/>
-      <c r="N142" s="1">
+      <c r="N142" s="7">
         <v>35665</v>
       </c>
       <c r="O142" s="1" t="s">
@@ -10220,10 +10233,10 @@
       <c r="H143" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I143" s="1">
+      <c r="I143" s="7">
         <v>40057</v>
       </c>
-      <c r="J143" s="1">
+      <c r="J143" s="7">
         <v>40725</v>
       </c>
       <c r="K143" s="1"/>
@@ -10231,7 +10244,7 @@
         <v>6120103556</v>
       </c>
       <c r="M143" s="1"/>
-      <c r="N143" s="1">
+      <c r="N143" s="7">
         <v>35666</v>
       </c>
       <c r="O143" s="1" t="s">
@@ -10271,10 +10284,10 @@
       <c r="H144" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I144" s="1">
+      <c r="I144" s="7">
         <v>40057</v>
       </c>
-      <c r="J144" s="1">
+      <c r="J144" s="7">
         <v>40725</v>
       </c>
       <c r="K144" s="1"/>
@@ -10282,7 +10295,7 @@
         <v>6120100987</v>
       </c>
       <c r="M144" s="1"/>
-      <c r="N144" s="1">
+      <c r="N144" s="7">
         <v>35667</v>
       </c>
       <c r="O144" s="1" t="s">
@@ -10322,10 +10335,10 @@
       <c r="H145" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I145" s="1">
+      <c r="I145" s="7">
         <v>40057</v>
       </c>
-      <c r="J145" s="1">
+      <c r="J145" s="7">
         <v>40725</v>
       </c>
       <c r="K145" s="1"/>
@@ -10333,7 +10346,7 @@
         <v>6120101029</v>
       </c>
       <c r="M145" s="1"/>
-      <c r="N145" s="1">
+      <c r="N145" s="7">
         <v>35668</v>
       </c>
       <c r="O145" s="1" t="s">
@@ -10373,10 +10386,10 @@
       <c r="H146" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I146" s="1">
+      <c r="I146" s="7">
         <v>40057</v>
       </c>
-      <c r="J146" s="1">
+      <c r="J146" s="7">
         <v>40725</v>
       </c>
       <c r="K146" s="1"/>
@@ -10384,7 +10397,7 @@
         <v>6120103556</v>
       </c>
       <c r="M146" s="1"/>
-      <c r="N146" s="1">
+      <c r="N146" s="7">
         <v>35669</v>
       </c>
       <c r="O146" s="1" t="s">
@@ -10424,10 +10437,10 @@
       <c r="H147" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I147" s="1">
+      <c r="I147" s="7">
         <v>39692</v>
       </c>
-      <c r="J147" s="1">
+      <c r="J147" s="7">
         <v>40360</v>
       </c>
       <c r="K147" s="1"/>
@@ -10435,7 +10448,7 @@
         <v>6120101029</v>
       </c>
       <c r="M147" s="1"/>
-      <c r="N147" s="1">
+      <c r="N147" s="7">
         <v>35670</v>
       </c>
       <c r="O147" s="1" t="s">
@@ -10475,10 +10488,10 @@
       <c r="H148" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I148" s="1">
+      <c r="I148" s="7">
         <v>39692</v>
       </c>
-      <c r="J148" s="1">
+      <c r="J148" s="7">
         <v>40360</v>
       </c>
       <c r="K148" s="1"/>
@@ -10486,7 +10499,7 @@
         <v>6120103556</v>
       </c>
       <c r="M148" s="1"/>
-      <c r="N148" s="1">
+      <c r="N148" s="7">
         <v>35671</v>
       </c>
       <c r="O148" s="1" t="s">
@@ -10526,10 +10539,10 @@
       <c r="H149" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I149" s="1">
+      <c r="I149" s="7">
         <v>39692</v>
       </c>
-      <c r="J149" s="1">
+      <c r="J149" s="7">
         <v>40360</v>
       </c>
       <c r="K149" s="1"/>
@@ -10537,7 +10550,7 @@
         <v>6120101029</v>
       </c>
       <c r="M149" s="1"/>
-      <c r="N149" s="1">
+      <c r="N149" s="7">
         <v>35672</v>
       </c>
       <c r="O149" s="1" t="s">
@@ -10577,10 +10590,10 @@
       <c r="H150" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I150" s="1">
+      <c r="I150" s="7">
         <v>39692</v>
       </c>
-      <c r="J150" s="1">
+      <c r="J150" s="7">
         <v>40360</v>
       </c>
       <c r="K150" s="1"/>
@@ -10588,7 +10601,7 @@
         <v>6120103556</v>
       </c>
       <c r="M150" s="1"/>
-      <c r="N150" s="1">
+      <c r="N150" s="7">
         <v>35673</v>
       </c>
       <c r="O150" s="1" t="s">
@@ -10628,10 +10641,10 @@
       <c r="H151" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I151" s="1">
+      <c r="I151" s="7">
         <v>39692</v>
       </c>
-      <c r="J151" s="1">
+      <c r="J151" s="7">
         <v>40360</v>
       </c>
       <c r="K151" s="1"/>
@@ -10639,7 +10652,7 @@
         <v>6120101029</v>
       </c>
       <c r="M151" s="1"/>
-      <c r="N151" s="1">
+      <c r="N151" s="7">
         <v>35674</v>
       </c>
       <c r="O151" s="1" t="s">
@@ -10679,10 +10692,10 @@
       <c r="H152" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I152" s="1">
+      <c r="I152" s="7">
         <v>39692</v>
       </c>
-      <c r="J152" s="1">
+      <c r="J152" s="7">
         <v>40360</v>
       </c>
       <c r="K152" s="1"/>
@@ -10690,7 +10703,7 @@
         <v>6120103556</v>
       </c>
       <c r="M152" s="1"/>
-      <c r="N152" s="1">
+      <c r="N152" s="7">
         <v>35675</v>
       </c>
       <c r="O152" s="1" t="s">
@@ -10730,10 +10743,10 @@
       <c r="H153" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I153" s="1">
+      <c r="I153" s="7">
         <v>39692</v>
       </c>
-      <c r="J153" s="1">
+      <c r="J153" s="7">
         <v>40360</v>
       </c>
       <c r="K153" s="1"/>
@@ -10741,7 +10754,7 @@
         <v>6120101029</v>
       </c>
       <c r="M153" s="1"/>
-      <c r="N153" s="1">
+      <c r="N153" s="7">
         <v>35676</v>
       </c>
       <c r="O153" s="1" t="s">
@@ -10781,10 +10794,10 @@
       <c r="H154" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I154" s="1">
+      <c r="I154" s="7">
         <v>39692</v>
       </c>
-      <c r="J154" s="1">
+      <c r="J154" s="7">
         <v>40360</v>
       </c>
       <c r="K154" s="1"/>
@@ -10792,7 +10805,7 @@
         <v>6120103556</v>
       </c>
       <c r="M154" s="1"/>
-      <c r="N154" s="1">
+      <c r="N154" s="7">
         <v>35677</v>
       </c>
       <c r="O154" s="1" t="s">
@@ -10832,10 +10845,10 @@
       <c r="H155" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I155" s="1">
+      <c r="I155" s="7">
         <v>39692</v>
       </c>
-      <c r="J155" s="1">
+      <c r="J155" s="7">
         <v>40360</v>
       </c>
       <c r="K155" s="1"/>
@@ -10843,7 +10856,7 @@
         <v>6120103556</v>
       </c>
       <c r="M155" s="1"/>
-      <c r="N155" s="1">
+      <c r="N155" s="7">
         <v>35678</v>
       </c>
       <c r="O155" s="1" t="s">
@@ -10883,10 +10896,10 @@
       <c r="H156" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I156" s="1">
+      <c r="I156" s="7">
         <v>39692</v>
       </c>
-      <c r="J156" s="1">
+      <c r="J156" s="7">
         <v>40360</v>
       </c>
       <c r="K156" s="1"/>
@@ -10894,7 +10907,7 @@
         <v>6120100987</v>
       </c>
       <c r="M156" s="1"/>
-      <c r="N156" s="1">
+      <c r="N156" s="7">
         <v>35679</v>
       </c>
       <c r="O156" s="1" t="s">
@@ -10934,10 +10947,10 @@
       <c r="H157" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I157" s="1">
+      <c r="I157" s="7">
         <v>39692</v>
       </c>
-      <c r="J157" s="1">
+      <c r="J157" s="7">
         <v>40360</v>
       </c>
       <c r="K157" s="1"/>
@@ -10945,7 +10958,7 @@
         <v>6120100987</v>
       </c>
       <c r="M157" s="1"/>
-      <c r="N157" s="1">
+      <c r="N157" s="7">
         <v>35680</v>
       </c>
       <c r="O157" s="1" t="s">
@@ -10985,10 +10998,10 @@
       <c r="H158" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I158" s="1">
+      <c r="I158" s="7">
         <v>39692</v>
       </c>
-      <c r="J158" s="1">
+      <c r="J158" s="7">
         <v>40360</v>
       </c>
       <c r="K158" s="1"/>
@@ -10996,7 +11009,7 @@
         <v>6120100987</v>
       </c>
       <c r="M158" s="1"/>
-      <c r="N158" s="1">
+      <c r="N158" s="7">
         <v>35681</v>
       </c>
       <c r="O158" s="1" t="s">
@@ -11036,10 +11049,10 @@
       <c r="H159" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I159" s="1">
+      <c r="I159" s="7">
         <v>39692</v>
       </c>
-      <c r="J159" s="1">
+      <c r="J159" s="7">
         <v>40360</v>
       </c>
       <c r="K159" s="1"/>
@@ -11047,7 +11060,7 @@
         <v>6120100987</v>
       </c>
       <c r="M159" s="1"/>
-      <c r="N159" s="1">
+      <c r="N159" s="7">
         <v>35682</v>
       </c>
       <c r="O159" s="1" t="s">
@@ -11087,10 +11100,10 @@
       <c r="H160" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I160" s="1">
+      <c r="I160" s="7">
         <v>39692</v>
       </c>
-      <c r="J160" s="1">
+      <c r="J160" s="7">
         <v>40360</v>
       </c>
       <c r="K160" s="1"/>
@@ -11098,7 +11111,7 @@
         <v>6120101029</v>
       </c>
       <c r="M160" s="1"/>
-      <c r="N160" s="1">
+      <c r="N160" s="7">
         <v>35683</v>
       </c>
       <c r="O160" s="1" t="s">
@@ -11138,10 +11151,10 @@
       <c r="H161" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I161" s="1">
+      <c r="I161" s="7">
         <v>39692</v>
       </c>
-      <c r="J161" s="1">
+      <c r="J161" s="7">
         <v>40360</v>
       </c>
       <c r="K161" s="1"/>
@@ -11149,7 +11162,7 @@
         <v>6120103556</v>
       </c>
       <c r="M161" s="1"/>
-      <c r="N161" s="1">
+      <c r="N161" s="7">
         <v>35684</v>
       </c>
       <c r="O161" s="1" t="s">
@@ -11189,10 +11202,10 @@
       <c r="H162" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I162" s="1">
+      <c r="I162" s="7">
         <v>39692</v>
       </c>
-      <c r="J162" s="1">
+      <c r="J162" s="7">
         <v>40360</v>
       </c>
       <c r="K162" s="1"/>
@@ -11200,7 +11213,7 @@
         <v>6120101029</v>
       </c>
       <c r="M162" s="1"/>
-      <c r="N162" s="1">
+      <c r="N162" s="7">
         <v>35685</v>
       </c>
       <c r="O162" s="1" t="s">
@@ -11240,10 +11253,10 @@
       <c r="H163" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I163" s="1">
+      <c r="I163" s="7">
         <v>39692</v>
       </c>
-      <c r="J163" s="1">
+      <c r="J163" s="7">
         <v>40360</v>
       </c>
       <c r="K163" s="1"/>
@@ -11251,7 +11264,7 @@
         <v>6120101029</v>
       </c>
       <c r="M163" s="1"/>
-      <c r="N163" s="1">
+      <c r="N163" s="7">
         <v>35686</v>
       </c>
       <c r="O163" s="1" t="s">
@@ -11291,10 +11304,10 @@
       <c r="H164" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I164" s="1">
+      <c r="I164" s="7">
         <v>39326</v>
       </c>
-      <c r="J164" s="1">
+      <c r="J164" s="7">
         <v>39995</v>
       </c>
       <c r="K164" s="1"/>
@@ -11302,7 +11315,7 @@
         <v>6120101029</v>
       </c>
       <c r="M164" s="1"/>
-      <c r="N164" s="1">
+      <c r="N164" s="7">
         <v>35687</v>
       </c>
       <c r="O164" s="1" t="s">
@@ -11342,10 +11355,10 @@
       <c r="H165" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I165" s="1">
+      <c r="I165" s="7">
         <v>39326</v>
       </c>
-      <c r="J165" s="1">
+      <c r="J165" s="7">
         <v>39995</v>
       </c>
       <c r="K165" s="1"/>
@@ -11353,7 +11366,7 @@
         <v>6120101029</v>
       </c>
       <c r="M165" s="1"/>
-      <c r="N165" s="1">
+      <c r="N165" s="7">
         <v>35688</v>
       </c>
       <c r="O165" s="1" t="s">
@@ -11393,10 +11406,10 @@
       <c r="H166" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I166" s="1">
+      <c r="I166" s="7">
         <v>39326</v>
       </c>
-      <c r="J166" s="1">
+      <c r="J166" s="7">
         <v>39995</v>
       </c>
       <c r="K166" s="1"/>
@@ -11404,7 +11417,7 @@
         <v>6120101029</v>
       </c>
       <c r="M166" s="1"/>
-      <c r="N166" s="1">
+      <c r="N166" s="7">
         <v>35689</v>
       </c>
       <c r="O166" s="1" t="s">
@@ -11444,10 +11457,10 @@
       <c r="H167" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I167" s="1">
+      <c r="I167" s="7">
         <v>39326</v>
       </c>
-      <c r="J167" s="1">
+      <c r="J167" s="7">
         <v>39995</v>
       </c>
       <c r="K167" s="1"/>
@@ -11455,7 +11468,7 @@
         <v>6120103556</v>
       </c>
       <c r="M167" s="1"/>
-      <c r="N167" s="1">
+      <c r="N167" s="7">
         <v>35690</v>
       </c>
       <c r="O167" s="1" t="s">
@@ -11495,10 +11508,10 @@
       <c r="H168" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I168" s="1">
+      <c r="I168" s="7">
         <v>39326</v>
       </c>
-      <c r="J168" s="1">
+      <c r="J168" s="7">
         <v>39995</v>
       </c>
       <c r="K168" s="1"/>
@@ -11506,7 +11519,7 @@
         <v>6120100987</v>
       </c>
       <c r="M168" s="1"/>
-      <c r="N168" s="1">
+      <c r="N168" s="7">
         <v>35691</v>
       </c>
       <c r="O168" s="1" t="s">
@@ -11546,10 +11559,10 @@
       <c r="H169" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I169" s="1">
+      <c r="I169" s="7">
         <v>39326</v>
       </c>
-      <c r="J169" s="1">
+      <c r="J169" s="7">
         <v>39995</v>
       </c>
       <c r="K169" s="1"/>
@@ -11557,7 +11570,7 @@
         <v>6120100987</v>
       </c>
       <c r="M169" s="1"/>
-      <c r="N169" s="1">
+      <c r="N169" s="7">
         <v>35692</v>
       </c>
       <c r="O169" s="1" t="s">
@@ -11597,10 +11610,10 @@
       <c r="H170" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I170" s="1">
+      <c r="I170" s="7">
         <v>39326</v>
       </c>
-      <c r="J170" s="1">
+      <c r="J170" s="7">
         <v>39995</v>
       </c>
       <c r="K170" s="1"/>
@@ -11608,7 +11621,7 @@
         <v>6120103556</v>
       </c>
       <c r="M170" s="1"/>
-      <c r="N170" s="1">
+      <c r="N170" s="7">
         <v>35693</v>
       </c>
       <c r="O170" s="1" t="s">
@@ -11648,10 +11661,10 @@
       <c r="H171" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I171" s="1">
+      <c r="I171" s="7">
         <v>39326</v>
       </c>
-      <c r="J171" s="1">
+      <c r="J171" s="7">
         <v>39995</v>
       </c>
       <c r="K171" s="1"/>
@@ -11659,7 +11672,7 @@
         <v>6120101029</v>
       </c>
       <c r="M171" s="1"/>
-      <c r="N171" s="1">
+      <c r="N171" s="7">
         <v>35694</v>
       </c>
       <c r="O171" s="1" t="s">
@@ -11699,10 +11712,10 @@
       <c r="H172" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I172" s="1">
+      <c r="I172" s="7">
         <v>39326</v>
       </c>
-      <c r="J172" s="1">
+      <c r="J172" s="7">
         <v>39995</v>
       </c>
       <c r="K172" s="1"/>
@@ -11710,7 +11723,7 @@
         <v>6120103556</v>
       </c>
       <c r="M172" s="1"/>
-      <c r="N172" s="1">
+      <c r="N172" s="7">
         <v>35695</v>
       </c>
       <c r="O172" s="1" t="s">
@@ -11750,10 +11763,10 @@
       <c r="H173" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I173" s="1">
+      <c r="I173" s="7">
         <v>39326</v>
       </c>
-      <c r="J173" s="1">
+      <c r="J173" s="7">
         <v>39995</v>
       </c>
       <c r="K173" s="1"/>
@@ -11761,7 +11774,7 @@
         <v>6120101029</v>
       </c>
       <c r="M173" s="1"/>
-      <c r="N173" s="1">
+      <c r="N173" s="7">
         <v>35696</v>
       </c>
       <c r="O173" s="1" t="s">
@@ -11801,10 +11814,10 @@
       <c r="H174" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I174" s="1">
+      <c r="I174" s="7">
         <v>39326</v>
       </c>
-      <c r="J174" s="1">
+      <c r="J174" s="7">
         <v>39995</v>
       </c>
       <c r="K174" s="1"/>
@@ -11812,7 +11825,7 @@
         <v>6120103556</v>
       </c>
       <c r="M174" s="1"/>
-      <c r="N174" s="1">
+      <c r="N174" s="7">
         <v>35697</v>
       </c>
       <c r="O174" s="1" t="s">
@@ -11852,10 +11865,10 @@
       <c r="H175" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I175" s="1">
+      <c r="I175" s="7">
         <v>39326</v>
       </c>
-      <c r="J175" s="1">
+      <c r="J175" s="7">
         <v>39995</v>
       </c>
       <c r="K175" s="1"/>
@@ -11863,7 +11876,7 @@
         <v>6120101029</v>
       </c>
       <c r="M175" s="1"/>
-      <c r="N175" s="1">
+      <c r="N175" s="7">
         <v>35698</v>
       </c>
       <c r="O175" s="1" t="s">
@@ -11903,10 +11916,10 @@
       <c r="H176" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I176" s="1">
+      <c r="I176" s="7">
         <v>39326</v>
       </c>
-      <c r="J176" s="1">
+      <c r="J176" s="7">
         <v>39995</v>
       </c>
       <c r="K176" s="1"/>
@@ -11914,7 +11927,7 @@
         <v>6120101029</v>
       </c>
       <c r="M176" s="1"/>
-      <c r="N176" s="1">
+      <c r="N176" s="7">
         <v>35699</v>
       </c>
       <c r="O176" s="1" t="s">
@@ -11954,10 +11967,10 @@
       <c r="H177" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I177" s="1">
+      <c r="I177" s="7">
         <v>39326</v>
       </c>
-      <c r="J177" s="1">
+      <c r="J177" s="7">
         <v>39995</v>
       </c>
       <c r="K177" s="1"/>
@@ -11965,7 +11978,7 @@
         <v>6120103556</v>
       </c>
       <c r="M177" s="1"/>
-      <c r="N177" s="1">
+      <c r="N177" s="7">
         <v>35700</v>
       </c>
       <c r="O177" s="1" t="s">
@@ -12005,10 +12018,10 @@
       <c r="H178" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I178" s="1">
+      <c r="I178" s="7">
         <v>39326</v>
       </c>
-      <c r="J178" s="1">
+      <c r="J178" s="7">
         <v>39995</v>
       </c>
       <c r="K178" s="1"/>
@@ -12016,7 +12029,7 @@
         <v>6120100987</v>
       </c>
       <c r="M178" s="1"/>
-      <c r="N178" s="1">
+      <c r="N178" s="7">
         <v>35701</v>
       </c>
       <c r="O178" s="1" t="s">
@@ -12056,10 +12069,10 @@
       <c r="H179" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I179" s="1">
+      <c r="I179" s="7">
         <v>39326</v>
       </c>
-      <c r="J179" s="1">
+      <c r="J179" s="7">
         <v>39995</v>
       </c>
       <c r="K179" s="1"/>
@@ -12067,7 +12080,7 @@
         <v>6120103556</v>
       </c>
       <c r="M179" s="1"/>
-      <c r="N179" s="1">
+      <c r="N179" s="7">
         <v>35702</v>
       </c>
       <c r="O179" s="1" t="s">
@@ -12107,10 +12120,10 @@
       <c r="H180" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I180" s="1">
+      <c r="I180" s="7">
         <v>39326</v>
       </c>
-      <c r="J180" s="1">
+      <c r="J180" s="7">
         <v>39995</v>
       </c>
       <c r="K180" s="1"/>
@@ -12118,7 +12131,7 @@
         <v>6120103556</v>
       </c>
       <c r="M180" s="1"/>
-      <c r="N180" s="1">
+      <c r="N180" s="7">
         <v>35703</v>
       </c>
       <c r="O180" s="1" t="s">
@@ -12158,10 +12171,10 @@
       <c r="H181" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I181" s="1">
+      <c r="I181" s="7">
         <v>38961</v>
       </c>
-      <c r="J181" s="1">
+      <c r="J181" s="7">
         <v>39630</v>
       </c>
       <c r="K181" s="1"/>
@@ -12169,7 +12182,7 @@
         <v>6120103556</v>
       </c>
       <c r="M181" s="1"/>
-      <c r="N181" s="1">
+      <c r="N181" s="7">
         <v>35704</v>
       </c>
       <c r="O181" s="1" t="s">
@@ -12209,10 +12222,10 @@
       <c r="H182" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I182" s="1">
+      <c r="I182" s="7">
         <v>38961</v>
       </c>
-      <c r="J182" s="1">
+      <c r="J182" s="7">
         <v>39630</v>
       </c>
       <c r="K182" s="1"/>
@@ -12220,7 +12233,7 @@
         <v>6120100987</v>
       </c>
       <c r="M182" s="1"/>
-      <c r="N182" s="1">
+      <c r="N182" s="7">
         <v>35705</v>
       </c>
       <c r="O182" s="1" t="s">
@@ -12260,10 +12273,10 @@
       <c r="H183" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I183" s="1">
+      <c r="I183" s="7">
         <v>38961</v>
       </c>
-      <c r="J183" s="1">
+      <c r="J183" s="7">
         <v>39630</v>
       </c>
       <c r="K183" s="1"/>
@@ -12271,7 +12284,7 @@
         <v>6120101029</v>
       </c>
       <c r="M183" s="1"/>
-      <c r="N183" s="1">
+      <c r="N183" s="7">
         <v>35706</v>
       </c>
       <c r="O183" s="1" t="s">
@@ -12311,10 +12324,10 @@
       <c r="H184" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I184" s="1">
+      <c r="I184" s="7">
         <v>38961</v>
       </c>
-      <c r="J184" s="1">
+      <c r="J184" s="7">
         <v>39630</v>
       </c>
       <c r="K184" s="1"/>
@@ -12322,7 +12335,7 @@
         <v>6120101029</v>
       </c>
       <c r="M184" s="1"/>
-      <c r="N184" s="1">
+      <c r="N184" s="7">
         <v>35707</v>
       </c>
       <c r="O184" s="1" t="s">
@@ -12362,10 +12375,10 @@
       <c r="H185" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I185" s="1">
+      <c r="I185" s="7">
         <v>38961</v>
       </c>
-      <c r="J185" s="1">
+      <c r="J185" s="7">
         <v>39630</v>
       </c>
       <c r="K185" s="1"/>
@@ -12373,7 +12386,7 @@
         <v>6120100987</v>
       </c>
       <c r="M185" s="1"/>
-      <c r="N185" s="1">
+      <c r="N185" s="7">
         <v>35708</v>
       </c>
       <c r="O185" s="1" t="s">
@@ -12413,10 +12426,10 @@
       <c r="H186" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I186" s="1">
+      <c r="I186" s="7">
         <v>38961</v>
       </c>
-      <c r="J186" s="1">
+      <c r="J186" s="7">
         <v>39630</v>
       </c>
       <c r="K186" s="1"/>
@@ -12424,7 +12437,7 @@
         <v>6120103556</v>
       </c>
       <c r="M186" s="1"/>
-      <c r="N186" s="1">
+      <c r="N186" s="7">
         <v>35709</v>
       </c>
       <c r="O186" s="1" t="s">
@@ -12464,10 +12477,10 @@
       <c r="H187" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I187" s="1">
+      <c r="I187" s="7">
         <v>38961</v>
       </c>
-      <c r="J187" s="1">
+      <c r="J187" s="7">
         <v>39630</v>
       </c>
       <c r="K187" s="1"/>
@@ -12475,7 +12488,7 @@
         <v>6120101029</v>
       </c>
       <c r="M187" s="1"/>
-      <c r="N187" s="1">
+      <c r="N187" s="7">
         <v>35710</v>
       </c>
       <c r="O187" s="1" t="s">
@@ -12515,10 +12528,10 @@
       <c r="H188" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I188" s="1">
+      <c r="I188" s="7">
         <v>38961</v>
       </c>
-      <c r="J188" s="1">
+      <c r="J188" s="7">
         <v>39630</v>
       </c>
       <c r="K188" s="1"/>
@@ -12526,7 +12539,7 @@
         <v>6120101029</v>
       </c>
       <c r="M188" s="1"/>
-      <c r="N188" s="1">
+      <c r="N188" s="7">
         <v>35711</v>
       </c>
       <c r="O188" s="1" t="s">
@@ -12566,10 +12579,10 @@
       <c r="H189" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I189" s="1">
+      <c r="I189" s="7">
         <v>38961</v>
       </c>
-      <c r="J189" s="1">
+      <c r="J189" s="7">
         <v>39630</v>
       </c>
       <c r="K189" s="1"/>
@@ -12577,7 +12590,7 @@
         <v>6120100987</v>
       </c>
       <c r="M189" s="1"/>
-      <c r="N189" s="1">
+      <c r="N189" s="7">
         <v>35712</v>
       </c>
       <c r="O189" s="1" t="s">
@@ -12617,10 +12630,10 @@
       <c r="H190" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I190" s="1">
+      <c r="I190" s="7">
         <v>38961</v>
       </c>
-      <c r="J190" s="1">
+      <c r="J190" s="7">
         <v>39630</v>
       </c>
       <c r="K190" s="1"/>
@@ -12628,7 +12641,7 @@
         <v>6120101029</v>
       </c>
       <c r="M190" s="1"/>
-      <c r="N190" s="1">
+      <c r="N190" s="7">
         <v>35713</v>
       </c>
       <c r="O190" s="1" t="s">
@@ -12668,10 +12681,10 @@
       <c r="H191" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I191" s="1">
+      <c r="I191" s="7">
         <v>38961</v>
       </c>
-      <c r="J191" s="1">
+      <c r="J191" s="7">
         <v>39630</v>
       </c>
       <c r="K191" s="1"/>
@@ -12679,7 +12692,7 @@
         <v>6120101029</v>
       </c>
       <c r="M191" s="1"/>
-      <c r="N191" s="1">
+      <c r="N191" s="7">
         <v>35714</v>
       </c>
       <c r="O191" s="1" t="s">
@@ -12719,10 +12732,10 @@
       <c r="H192" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I192" s="1">
+      <c r="I192" s="7">
         <v>38961</v>
       </c>
-      <c r="J192" s="1">
+      <c r="J192" s="7">
         <v>39630</v>
       </c>
       <c r="K192" s="1"/>
@@ -12730,7 +12743,7 @@
         <v>6120103556</v>
       </c>
       <c r="M192" s="1"/>
-      <c r="N192" s="1">
+      <c r="N192" s="7">
         <v>35715</v>
       </c>
       <c r="O192" s="1" t="s">
@@ -12770,10 +12783,10 @@
       <c r="H193" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I193" s="1">
+      <c r="I193" s="7">
         <v>38961</v>
       </c>
-      <c r="J193" s="1">
+      <c r="J193" s="7">
         <v>39630</v>
       </c>
       <c r="K193" s="1"/>
@@ -12781,7 +12794,7 @@
         <v>6120103556</v>
       </c>
       <c r="M193" s="1"/>
-      <c r="N193" s="1">
+      <c r="N193" s="7">
         <v>35716</v>
       </c>
       <c r="O193" s="1" t="s">
@@ -12821,10 +12834,10 @@
       <c r="H194" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I194" s="1">
+      <c r="I194" s="7">
         <v>38961</v>
       </c>
-      <c r="J194" s="1">
+      <c r="J194" s="7">
         <v>39630</v>
       </c>
       <c r="K194" s="1"/>
@@ -12832,7 +12845,7 @@
         <v>6120101029</v>
       </c>
       <c r="M194" s="1"/>
-      <c r="N194" s="1">
+      <c r="N194" s="7">
         <v>35717</v>
       </c>
       <c r="O194" s="1" t="s">
@@ -12872,10 +12885,10 @@
       <c r="H195" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I195" s="1">
+      <c r="I195" s="7">
         <v>38961</v>
       </c>
-      <c r="J195" s="1">
+      <c r="J195" s="7">
         <v>39630</v>
       </c>
       <c r="K195" s="1"/>
@@ -12883,7 +12896,7 @@
         <v>6120101029</v>
       </c>
       <c r="M195" s="1"/>
-      <c r="N195" s="1">
+      <c r="N195" s="7">
         <v>35718</v>
       </c>
       <c r="O195" s="1" t="s">
@@ -12923,10 +12936,10 @@
       <c r="H196" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I196" s="1">
+      <c r="I196" s="7">
         <v>38961</v>
       </c>
-      <c r="J196" s="1">
+      <c r="J196" s="7">
         <v>39630</v>
       </c>
       <c r="K196" s="1"/>
@@ -12934,7 +12947,7 @@
         <v>6120103556</v>
       </c>
       <c r="M196" s="1"/>
-      <c r="N196" s="1">
+      <c r="N196" s="7">
         <v>35719</v>
       </c>
       <c r="O196" s="1" t="s">
@@ -12974,10 +12987,10 @@
       <c r="H197" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I197" s="1">
+      <c r="I197" s="7">
         <v>38961</v>
       </c>
-      <c r="J197" s="1">
+      <c r="J197" s="7">
         <v>39630</v>
       </c>
       <c r="K197" s="1"/>
@@ -12985,7 +12998,7 @@
         <v>6120103556</v>
       </c>
       <c r="M197" s="1"/>
-      <c r="N197" s="1">
+      <c r="N197" s="7">
         <v>35720</v>
       </c>
       <c r="O197" s="1" t="s">
@@ -13025,10 +13038,10 @@
       <c r="H198" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I198" s="1">
+      <c r="I198" s="7">
         <v>38961</v>
       </c>
-      <c r="J198" s="1">
+      <c r="J198" s="7">
         <v>39630</v>
       </c>
       <c r="K198" s="1"/>
@@ -13036,7 +13049,7 @@
         <v>6120101029</v>
       </c>
       <c r="M198" s="1"/>
-      <c r="N198" s="1">
+      <c r="N198" s="7">
         <v>35721</v>
       </c>
       <c r="O198" s="1" t="s">
@@ -13076,10 +13089,10 @@
       <c r="H199" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I199" s="1">
+      <c r="I199" s="7">
         <v>38961</v>
       </c>
-      <c r="J199" s="1">
+      <c r="J199" s="7">
         <v>39630</v>
       </c>
       <c r="K199" s="1"/>
@@ -13087,7 +13100,7 @@
         <v>6120101029</v>
       </c>
       <c r="M199" s="1"/>
-      <c r="N199" s="1">
+      <c r="N199" s="7">
         <v>35722</v>
       </c>
       <c r="O199" s="1" t="s">
@@ -13127,10 +13140,10 @@
       <c r="H200" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I200" s="1">
+      <c r="I200" s="7">
         <v>38961</v>
       </c>
-      <c r="J200" s="1">
+      <c r="J200" s="7">
         <v>39630</v>
       </c>
       <c r="K200" s="1"/>
@@ -13138,7 +13151,7 @@
         <v>6120103556</v>
       </c>
       <c r="M200" s="1"/>
-      <c r="N200" s="1">
+      <c r="N200" s="7">
         <v>35723</v>
       </c>
       <c r="O200" s="1" t="s">
@@ -13178,10 +13191,10 @@
       <c r="H201" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I201" s="1">
+      <c r="I201" s="7">
         <v>38961</v>
       </c>
-      <c r="J201" s="1">
+      <c r="J201" s="7">
         <v>39630</v>
       </c>
       <c r="K201" s="1"/>
@@ -13189,7 +13202,7 @@
         <v>6120103556</v>
       </c>
       <c r="M201" s="1"/>
-      <c r="N201" s="1">
+      <c r="N201" s="7">
         <v>35724</v>
       </c>
       <c r="O201" s="1" t="s">
@@ -13229,10 +13242,10 @@
       <c r="H202" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I202" s="1">
+      <c r="I202" s="7">
         <v>38961</v>
       </c>
-      <c r="J202" s="1">
+      <c r="J202" s="7">
         <v>39630</v>
       </c>
       <c r="K202" s="1"/>
@@ -13240,7 +13253,7 @@
         <v>6120101029</v>
       </c>
       <c r="M202" s="1"/>
-      <c r="N202" s="1">
+      <c r="N202" s="7">
         <v>35725</v>
       </c>
       <c r="O202" s="1" t="s">
@@ -13280,10 +13293,10 @@
       <c r="H203" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I203" s="1">
+      <c r="I203" s="7">
         <v>38961</v>
       </c>
-      <c r="J203" s="1">
+      <c r="J203" s="7">
         <v>39630</v>
       </c>
       <c r="K203" s="1"/>
@@ -13291,7 +13304,7 @@
         <v>6120100987</v>
       </c>
       <c r="M203" s="1"/>
-      <c r="N203" s="1">
+      <c r="N203" s="7">
         <v>35726</v>
       </c>
       <c r="O203" s="1" t="s">
@@ -13331,10 +13344,10 @@
       <c r="H204" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I204" s="1">
+      <c r="I204" s="7">
         <v>38961</v>
       </c>
-      <c r="J204" s="1">
+      <c r="J204" s="7">
         <v>39630</v>
       </c>
       <c r="K204" s="1"/>
@@ -13342,7 +13355,7 @@
         <v>6120103556</v>
       </c>
       <c r="M204" s="1"/>
-      <c r="N204" s="1">
+      <c r="N204" s="7">
         <v>35727</v>
       </c>
       <c r="O204" s="1" t="s">
@@ -13382,10 +13395,10 @@
       <c r="H205" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I205" s="1">
+      <c r="I205" s="7">
         <v>38596</v>
       </c>
-      <c r="J205" s="1">
+      <c r="J205" s="7">
         <v>39326</v>
       </c>
       <c r="K205" s="1"/>
@@ -13393,7 +13406,7 @@
         <v>6120103556</v>
       </c>
       <c r="M205" s="1"/>
-      <c r="N205" s="1">
+      <c r="N205" s="7">
         <v>35728</v>
       </c>
       <c r="O205" s="1" t="s">
@@ -13433,10 +13446,10 @@
       <c r="H206" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I206" s="1">
+      <c r="I206" s="7">
         <v>38596</v>
       </c>
-      <c r="J206" s="1">
+      <c r="J206" s="7">
         <v>39326</v>
       </c>
       <c r="K206" s="1"/>
@@ -13444,7 +13457,7 @@
         <v>6120103556</v>
       </c>
       <c r="M206" s="1"/>
-      <c r="N206" s="1">
+      <c r="N206" s="7">
         <v>35729</v>
       </c>
       <c r="O206" s="1" t="s">
@@ -13484,10 +13497,10 @@
       <c r="H207" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I207" s="1">
+      <c r="I207" s="7">
         <v>38596</v>
       </c>
-      <c r="J207" s="1">
+      <c r="J207" s="7">
         <v>39326</v>
       </c>
       <c r="K207" s="1"/>
@@ -13495,7 +13508,7 @@
         <v>6120103556</v>
       </c>
       <c r="M207" s="1"/>
-      <c r="N207" s="1">
+      <c r="N207" s="7">
         <v>35730</v>
       </c>
       <c r="O207" s="1" t="s">
@@ -13535,10 +13548,10 @@
       <c r="H208" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I208" s="1">
+      <c r="I208" s="7">
         <v>38596</v>
       </c>
-      <c r="J208" s="1">
+      <c r="J208" s="7">
         <v>39326</v>
       </c>
       <c r="K208" s="1"/>
@@ -13546,7 +13559,7 @@
         <v>6120103556</v>
       </c>
       <c r="M208" s="1"/>
-      <c r="N208" s="1">
+      <c r="N208" s="7">
         <v>35731</v>
       </c>
       <c r="O208" s="1" t="s">
@@ -13586,10 +13599,10 @@
       <c r="H209" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I209" s="1">
+      <c r="I209" s="7">
         <v>38596</v>
       </c>
-      <c r="J209" s="1">
+      <c r="J209" s="7">
         <v>39326</v>
       </c>
       <c r="K209" s="1"/>
@@ -13597,7 +13610,7 @@
         <v>6120103556</v>
       </c>
       <c r="M209" s="1"/>
-      <c r="N209" s="1">
+      <c r="N209" s="7">
         <v>35732</v>
       </c>
       <c r="O209" s="1" t="s">
@@ -13637,10 +13650,10 @@
       <c r="H210" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I210" s="1">
+      <c r="I210" s="7">
         <v>38596</v>
       </c>
-      <c r="J210" s="1">
+      <c r="J210" s="7">
         <v>39326</v>
       </c>
       <c r="K210" s="1"/>
@@ -13648,7 +13661,7 @@
         <v>6120103556</v>
       </c>
       <c r="M210" s="1"/>
-      <c r="N210" s="1">
+      <c r="N210" s="7">
         <v>35733</v>
       </c>
       <c r="O210" s="1" t="s">
@@ -13688,10 +13701,10 @@
       <c r="H211" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I211" s="1">
+      <c r="I211" s="7">
         <v>38596</v>
       </c>
-      <c r="J211" s="1">
+      <c r="J211" s="7">
         <v>39326</v>
       </c>
       <c r="K211" s="1"/>
@@ -13699,7 +13712,7 @@
         <v>6120103556</v>
       </c>
       <c r="M211" s="1"/>
-      <c r="N211" s="1">
+      <c r="N211" s="7">
         <v>35734</v>
       </c>
       <c r="O211" s="1" t="s">
@@ -13739,10 +13752,10 @@
       <c r="H212" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I212" s="1">
+      <c r="I212" s="7">
         <v>38596</v>
       </c>
-      <c r="J212" s="1">
+      <c r="J212" s="7">
         <v>39326</v>
       </c>
       <c r="K212" s="1"/>
@@ -13750,7 +13763,7 @@
         <v>6120103556</v>
       </c>
       <c r="M212" s="1"/>
-      <c r="N212" s="1">
+      <c r="N212" s="7">
         <v>35735</v>
       </c>
       <c r="O212" s="1" t="s">
@@ -13790,10 +13803,10 @@
       <c r="H213" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I213" s="1">
+      <c r="I213" s="7">
         <v>38596</v>
       </c>
-      <c r="J213" s="1">
+      <c r="J213" s="7">
         <v>39264</v>
       </c>
       <c r="K213" s="1"/>
@@ -13801,7 +13814,7 @@
         <v>6120101029</v>
       </c>
       <c r="M213" s="1"/>
-      <c r="N213" s="1">
+      <c r="N213" s="7">
         <v>35736</v>
       </c>
       <c r="O213" s="1" t="s">
@@ -13841,10 +13854,10 @@
       <c r="H214" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I214" s="1">
+      <c r="I214" s="7">
         <v>38596</v>
       </c>
-      <c r="J214" s="1">
+      <c r="J214" s="7">
         <v>39264</v>
       </c>
       <c r="K214" s="1"/>
@@ -13852,7 +13865,7 @@
         <v>6120101029</v>
       </c>
       <c r="M214" s="1"/>
-      <c r="N214" s="1">
+      <c r="N214" s="7">
         <v>35737</v>
       </c>
       <c r="O214" s="1" t="s">
@@ -13892,10 +13905,10 @@
       <c r="H215" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I215" s="1">
+      <c r="I215" s="7">
         <v>38596</v>
       </c>
-      <c r="J215" s="1">
+      <c r="J215" s="7">
         <v>39264</v>
       </c>
       <c r="K215" s="1"/>
@@ -13903,7 +13916,7 @@
         <v>6120101029</v>
       </c>
       <c r="M215" s="1"/>
-      <c r="N215" s="1">
+      <c r="N215" s="7">
         <v>35738</v>
       </c>
       <c r="O215" s="1" t="s">
@@ -13943,10 +13956,10 @@
       <c r="H216" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I216" s="1">
+      <c r="I216" s="7">
         <v>38596</v>
       </c>
-      <c r="J216" s="1">
+      <c r="J216" s="7">
         <v>39264</v>
       </c>
       <c r="K216" s="1"/>
@@ -13954,7 +13967,7 @@
         <v>6120101029</v>
       </c>
       <c r="M216" s="1"/>
-      <c r="N216" s="1">
+      <c r="N216" s="7">
         <v>35739</v>
       </c>
       <c r="O216" s="1" t="s">
@@ -13994,10 +14007,10 @@
       <c r="H217" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I217" s="1">
+      <c r="I217" s="7">
         <v>38231</v>
       </c>
-      <c r="J217" s="1">
+      <c r="J217" s="7">
         <v>38899</v>
       </c>
       <c r="K217" s="1"/>
@@ -14005,7 +14018,7 @@
         <v>6120101029</v>
       </c>
       <c r="M217" s="1"/>
-      <c r="N217" s="1">
+      <c r="N217" s="7">
         <v>35740</v>
       </c>
       <c r="O217" s="1" t="s">
@@ -14045,10 +14058,10 @@
       <c r="H218" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I218" s="1">
+      <c r="I218" s="7">
         <v>38231</v>
       </c>
-      <c r="J218" s="1">
+      <c r="J218" s="7">
         <v>38899</v>
       </c>
       <c r="K218" s="1"/>
@@ -14056,7 +14069,7 @@
         <v>6120101029</v>
       </c>
       <c r="M218" s="1"/>
-      <c r="N218" s="1">
+      <c r="N218" s="7">
         <v>35741</v>
       </c>
       <c r="O218" s="1" t="s">
@@ -14096,10 +14109,10 @@
       <c r="H219" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I219" s="1">
+      <c r="I219" s="7">
         <v>38231</v>
       </c>
-      <c r="J219" s="1">
+      <c r="J219" s="7">
         <v>38899</v>
       </c>
       <c r="K219" s="1"/>
@@ -14107,7 +14120,7 @@
         <v>6120101029</v>
       </c>
       <c r="M219" s="1"/>
-      <c r="N219" s="1">
+      <c r="N219" s="7">
         <v>35742</v>
       </c>
       <c r="O219" s="1" t="s">
@@ -14147,10 +14160,10 @@
       <c r="H220" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I220" s="1">
+      <c r="I220" s="7">
         <v>38231</v>
       </c>
-      <c r="J220" s="1">
+      <c r="J220" s="7">
         <v>38899</v>
       </c>
       <c r="K220" s="1"/>
@@ -14158,7 +14171,7 @@
         <v>6120101029</v>
       </c>
       <c r="M220" s="1"/>
-      <c r="N220" s="1">
+      <c r="N220" s="7">
         <v>35743</v>
       </c>
       <c r="O220" s="1" t="s">
@@ -14198,10 +14211,10 @@
       <c r="H221" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I221" s="1">
+      <c r="I221" s="7">
         <v>38231</v>
       </c>
-      <c r="J221" s="1">
+      <c r="J221" s="7">
         <v>38899</v>
       </c>
       <c r="K221" s="1"/>
@@ -14209,7 +14222,7 @@
         <v>6120101029</v>
       </c>
       <c r="M221" s="1"/>
-      <c r="N221" s="1">
+      <c r="N221" s="7">
         <v>35744</v>
       </c>
       <c r="O221" s="1" t="s">
@@ -14249,10 +14262,10 @@
       <c r="H222" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I222" s="1">
+      <c r="I222" s="7">
         <v>38231</v>
       </c>
-      <c r="J222" s="1">
+      <c r="J222" s="7">
         <v>38899</v>
       </c>
       <c r="K222" s="1"/>
@@ -14260,7 +14273,7 @@
         <v>6120101029</v>
       </c>
       <c r="M222" s="1"/>
-      <c r="N222" s="1">
+      <c r="N222" s="7">
         <v>35745</v>
       </c>
       <c r="O222" s="1" t="s">

--- a/document/数据库/数据/t_student.xlsx
+++ b/document/数据库/数据/t_student.xlsx
@@ -2526,7 +2526,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -2653,13 +2653,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2942,8 +2942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
